--- a/capiq_data/in_process_data/IQ3132512.xlsx
+++ b/capiq_data/in_process_data/IQ3132512.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341FF874-159D-43E3-9B56-FF514351A48E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA15C303-550B-46FA-92FB-A3B1ED4853FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"61fcd6f7-4762-4970-aeb2-cd4704c6c82f"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"a6bc9035-717a-46b7-8fc5-c6bc87d74242"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40545</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>24.172999999999998</v>
+        <v>9.9809999999999999</v>
       </c>
       <c r="D2">
-        <v>479.971</v>
+        <v>364.44600000000003</v>
       </c>
       <c r="E2">
-        <v>80.41</v>
+        <v>48.682000000000002</v>
       </c>
       <c r="F2">
-        <v>136.108</v>
+        <v>93.97</v>
       </c>
       <c r="G2">
-        <v>305.03800000000001</v>
+        <v>116.74299999999999</v>
       </c>
       <c r="H2">
-        <v>460.83699999999999</v>
+        <v>373.76499999999999</v>
       </c>
       <c r="I2">
-        <v>56.601999999999997</v>
+        <v>38.335000000000001</v>
       </c>
       <c r="J2">
-        <v>1451.3209999999999</v>
+        <v>664.59199999999998</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,78 +892,78 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>186.126</v>
+        <v>123.41</v>
       </c>
       <c r="O2">
-        <v>1671.4880000000001</v>
+        <v>828.572</v>
       </c>
       <c r="P2">
-        <v>1452.1559999999999</v>
+        <v>686.07399999999996</v>
       </c>
       <c r="Q2">
-        <v>8.75</v>
+        <v>-1.5189999999999999</v>
       </c>
       <c r="R2">
-        <v>40545</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>10900</v>
+        <v>14600</v>
       </c>
       <c r="T2">
-        <v>-1210.6510000000001</v>
+        <v>-454.80700000000002</v>
       </c>
       <c r="U2">
-        <v>47.945</v>
+        <v>25.135999999999999</v>
       </c>
       <c r="V2">
-        <v>46.058999999999997</v>
+        <v>17.036999999999999</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>-0.218</v>
       </c>
       <c r="X2">
-        <v>-20.754999999999999</v>
+        <v>-7.234</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>-1.1040000000000001</v>
       </c>
       <c r="AA2">
-        <v>24.172999999999998</v>
+        <v>9.9809999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40629</v>
+        <v>36975</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>27.111000000000001</v>
+        <v>7.8090000000000002</v>
       </c>
       <c r="D3">
-        <v>389.18599999999998</v>
+        <v>287.63099999999997</v>
       </c>
       <c r="E3">
-        <v>83.847999999999999</v>
+        <v>50.743000000000002</v>
       </c>
       <c r="F3">
-        <v>111.60599999999999</v>
+        <v>75.385000000000005</v>
       </c>
       <c r="G3">
-        <v>339.03899999999999</v>
+        <v>107.563</v>
       </c>
       <c r="H3">
-        <v>487.42899999999997</v>
+        <v>363.25099999999998</v>
       </c>
       <c r="I3">
-        <v>63.305</v>
+        <v>33.396000000000001</v>
       </c>
       <c r="J3">
-        <v>1451.1030000000001</v>
+        <v>659.72799999999995</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,40 +972,40 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-0.22600000000000001</v>
+        <v>-6.9</v>
       </c>
       <c r="N3">
-        <v>171.149</v>
+        <v>118.218</v>
       </c>
       <c r="O3">
-        <v>1655.175</v>
+        <v>810.94299999999998</v>
       </c>
       <c r="P3">
-        <v>1451.932</v>
+        <v>679.16800000000001</v>
       </c>
       <c r="Q3">
-        <v>44.639000000000003</v>
+        <v>-4.3929999999999998</v>
       </c>
       <c r="R3">
-        <v>40629</v>
+        <v>36975</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>-1167.7460000000001</v>
+        <v>-447.69200000000001</v>
       </c>
       <c r="U3">
-        <v>92.584000000000003</v>
+        <v>20.742999999999999</v>
       </c>
       <c r="V3">
-        <v>27.809000000000001</v>
+        <v>10.262</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>16.649999999999999</v>
+        <v>-6.9</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -894,39 +1014,39 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>27.111000000000001</v>
+        <v>7.8090000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40713</v>
+        <v>37059</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>25.248000000000001</v>
+        <v>8.8759999999999994</v>
       </c>
       <c r="D4">
-        <v>384.93299999999999</v>
+        <v>283.75200000000001</v>
       </c>
       <c r="E4">
-        <v>84.325999999999993</v>
+        <v>56.037999999999997</v>
       </c>
       <c r="F4">
-        <v>110.694</v>
+        <v>71.787000000000006</v>
       </c>
       <c r="G4">
-        <v>340.23099999999999</v>
+        <v>136.41399999999999</v>
       </c>
       <c r="H4">
-        <v>486.98899999999998</v>
+        <v>386.40100000000001</v>
       </c>
       <c r="I4">
-        <v>58.688000000000002</v>
+        <v>37.384999999999998</v>
       </c>
       <c r="J4">
-        <v>1450.9190000000001</v>
+        <v>650.13</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,37 +1058,37 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>172.352</v>
+        <v>143.03</v>
       </c>
       <c r="O4">
-        <v>1658.354</v>
+        <v>825.86599999999999</v>
       </c>
       <c r="P4">
-        <v>1451.7429999999999</v>
+        <v>674.30499999999995</v>
       </c>
       <c r="Q4">
-        <v>-13.945</v>
+        <v>22.254000000000001</v>
       </c>
       <c r="R4">
-        <v>40713</v>
+        <v>37059</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>-1171.365</v>
+        <v>-439.46499999999997</v>
       </c>
       <c r="U4">
-        <v>78.638999999999996</v>
+        <v>42.997</v>
       </c>
       <c r="V4">
-        <v>16.603000000000002</v>
+        <v>32.505000000000003</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>-31.003</v>
+        <v>-4.8600000000000003</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -977,39 +1097,39 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>25.248000000000001</v>
+        <v>8.8759999999999994</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40797</v>
+        <v>37143</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>22.091000000000001</v>
+        <v>7.9320000000000004</v>
       </c>
       <c r="D5">
-        <v>376.32600000000002</v>
+        <v>289.45600000000002</v>
       </c>
       <c r="E5">
-        <v>81.146000000000001</v>
+        <v>56.146999999999998</v>
       </c>
       <c r="F5">
-        <v>103.35899999999999</v>
+        <v>70.632999999999996</v>
       </c>
       <c r="G5">
-        <v>288.75599999999997</v>
+        <v>130.31299999999999</v>
       </c>
       <c r="H5">
-        <v>438.22500000000002</v>
+        <v>380.93</v>
       </c>
       <c r="I5">
-        <v>54.216999999999999</v>
+        <v>34.953000000000003</v>
       </c>
       <c r="J5">
-        <v>1450.6679999999999</v>
+        <v>635.54499999999996</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,37 +1141,37 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>170.57599999999999</v>
+        <v>147.565</v>
       </c>
       <c r="O5">
-        <v>1659.181</v>
+        <v>814.03099999999995</v>
       </c>
       <c r="P5">
-        <v>1451.5619999999999</v>
+        <v>664.45399999999995</v>
       </c>
       <c r="Q5">
-        <v>-46.558999999999997</v>
+        <v>-6.2080000000000002</v>
       </c>
       <c r="R5">
-        <v>40797</v>
+        <v>37143</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>-1220.9559999999999</v>
+        <v>-433.101</v>
       </c>
       <c r="U5">
-        <v>32.08</v>
+        <v>36.789000000000001</v>
       </c>
       <c r="V5">
-        <v>40.694000000000003</v>
+        <v>11.698</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>-80.760999999999996</v>
+        <v>-9.8569999999999993</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1060,39 +1180,39 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>22.091000000000001</v>
+        <v>7.9320000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40909</v>
+        <v>37255</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>30.911000000000001</v>
+        <v>12.163</v>
       </c>
       <c r="D6">
-        <v>501.74799999999999</v>
+        <v>397.44200000000001</v>
       </c>
       <c r="E6">
-        <v>87.2</v>
+        <v>54.225000000000001</v>
       </c>
       <c r="F6">
-        <v>144.858</v>
+        <v>102.577</v>
       </c>
       <c r="G6">
-        <v>326.84300000000002</v>
+        <v>149.70599999999999</v>
       </c>
       <c r="H6">
-        <v>480.54300000000001</v>
+        <v>402.59800000000001</v>
       </c>
       <c r="I6">
-        <v>69.713999999999999</v>
+        <v>50.43</v>
       </c>
       <c r="J6">
-        <v>1450.3689999999999</v>
+        <v>611.53200000000004</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,37 +1224,37 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>197.17500000000001</v>
+        <v>174.43899999999999</v>
       </c>
       <c r="O6">
-        <v>1690.2819999999999</v>
+        <v>827.47199999999998</v>
       </c>
       <c r="P6">
-        <v>1451.2729999999999</v>
+        <v>654.68899999999996</v>
       </c>
       <c r="Q6">
-        <v>18.212</v>
+        <v>5.5880000000000001</v>
       </c>
       <c r="R6">
-        <v>40909</v>
+        <v>37255</v>
       </c>
       <c r="S6">
-        <v>10000</v>
+        <v>12600</v>
       </c>
       <c r="T6">
-        <v>-1209.739</v>
+        <v>-424.87400000000002</v>
       </c>
       <c r="U6">
-        <v>50.292000000000002</v>
+        <v>55.146999999999998</v>
       </c>
       <c r="V6">
-        <v>67.966999999999999</v>
+        <v>32.716000000000001</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>-2.8929999999999998</v>
       </c>
       <c r="X6">
-        <v>-28.370999999999999</v>
+        <v>-13.608000000000001</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1143,39 +1263,39 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>30.911000000000001</v>
+        <v>12.163</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40993</v>
+        <v>37339</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>20.742000000000001</v>
+        <v>15.904999999999999</v>
       </c>
       <c r="D7">
-        <v>384.58699999999999</v>
+        <v>308.05599999999998</v>
       </c>
       <c r="E7">
-        <v>80.066999999999993</v>
+        <v>52.454000000000001</v>
       </c>
       <c r="F7">
-        <v>114.649</v>
+        <v>82.718000000000004</v>
       </c>
       <c r="G7">
-        <v>427.88799999999998</v>
+        <v>99.322999999999993</v>
       </c>
       <c r="H7">
-        <v>601.27700000000004</v>
+        <v>379.92200000000003</v>
       </c>
       <c r="I7">
-        <v>62.033999999999999</v>
+        <v>39.384999999999998</v>
       </c>
       <c r="J7">
-        <v>1554.6510000000001</v>
+        <v>602.18499999999995</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,40 +1304,40 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-1447.127</v>
+        <v>-14.454000000000001</v>
       </c>
       <c r="N7">
-        <v>369.08699999999999</v>
+        <v>155.21199999999999</v>
       </c>
       <c r="O7">
-        <v>1967.0039999999999</v>
+        <v>798.55499999999995</v>
       </c>
       <c r="P7">
-        <v>1579.162</v>
+        <v>640.23099999999999</v>
       </c>
       <c r="Q7">
-        <v>164.43799999999999</v>
+        <v>-45.892000000000003</v>
       </c>
       <c r="R7">
-        <v>40993</v>
+        <v>37339</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>-1365.7270000000001</v>
+        <v>-418.63299999999998</v>
       </c>
       <c r="U7">
-        <v>214.73</v>
+        <v>5.2229999999999999</v>
       </c>
       <c r="V7">
-        <v>20.216999999999999</v>
+        <v>22.468</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>-10.006</v>
       </c>
       <c r="X7">
-        <v>102.55200000000001</v>
+        <v>-24.46</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1226,39 +1346,39 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>20.742000000000001</v>
+        <v>15.904999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41077</v>
+        <v>37423</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>28.094999999999999</v>
+        <v>10.808999999999999</v>
       </c>
       <c r="D8">
-        <v>376.12400000000002</v>
+        <v>294.06200000000001</v>
       </c>
       <c r="E8">
-        <v>85.521000000000001</v>
+        <v>53.396000000000001</v>
       </c>
       <c r="F8">
-        <v>114.607</v>
+        <v>78.272000000000006</v>
       </c>
       <c r="G8">
-        <v>254.50200000000001</v>
+        <v>105.985</v>
       </c>
       <c r="H8">
-        <v>424.61900000000003</v>
+        <v>375.43299999999999</v>
       </c>
       <c r="I8">
-        <v>59.222999999999999</v>
+        <v>35.286000000000001</v>
       </c>
       <c r="J8">
-        <v>1548.57</v>
+        <v>581.94000000000005</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,37 +1390,37 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>201.596</v>
+        <v>161.15199999999999</v>
       </c>
       <c r="O8">
-        <v>1793.729</v>
+        <v>784.08799999999997</v>
       </c>
       <c r="P8">
-        <v>1573.1079999999999</v>
+        <v>622.63400000000001</v>
       </c>
       <c r="Q8">
-        <v>-203.98</v>
+        <v>9.5719999999999992</v>
       </c>
       <c r="R8">
-        <v>41077</v>
+        <v>37423</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>-1369.11</v>
+        <v>-408.65499999999997</v>
       </c>
       <c r="U8">
-        <v>10.75</v>
+        <v>8.1270000000000007</v>
       </c>
       <c r="V8">
-        <v>37.893000000000001</v>
+        <v>29.888000000000002</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>-5.7000000000000002E-2</v>
       </c>
       <c r="X8">
-        <v>-226.715</v>
+        <v>-17.169</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1309,39 +1429,39 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>28.094999999999999</v>
+        <v>10.808999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41161</v>
+        <v>37507</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>25.977</v>
+        <v>10.801</v>
       </c>
       <c r="D9">
-        <v>378.077</v>
+        <v>277.06</v>
       </c>
       <c r="E9">
-        <v>86.762</v>
+        <v>53.689</v>
       </c>
       <c r="F9">
-        <v>111.407</v>
+        <v>73.61</v>
       </c>
       <c r="G9">
-        <v>272.12700000000001</v>
+        <v>104.65300000000001</v>
       </c>
       <c r="H9">
-        <v>440.952</v>
+        <v>376.22399999999999</v>
       </c>
       <c r="I9">
-        <v>61.875</v>
+        <v>49.277000000000001</v>
       </c>
       <c r="J9">
-        <v>1542.5219999999999</v>
+        <v>606.79</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,37 +1473,37 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>198.15100000000001</v>
+        <v>126.84</v>
       </c>
       <c r="O9">
-        <v>1786.4829999999999</v>
+        <v>775.03499999999997</v>
       </c>
       <c r="P9">
-        <v>1566.9659999999999</v>
+        <v>610.82399999999996</v>
       </c>
       <c r="Q9">
-        <v>23.8</v>
+        <v>-13.807</v>
       </c>
       <c r="R9">
-        <v>41161</v>
+        <v>37507</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>-1345.5309999999999</v>
+        <v>-398.81099999999998</v>
       </c>
       <c r="U9">
-        <v>34.549999999999997</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="V9">
-        <v>43.142000000000003</v>
+        <v>13.676</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>-0.128</v>
       </c>
       <c r="X9">
-        <v>-13.141</v>
+        <v>-15.561</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1392,39 +1512,39 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>25.975999999999999</v>
+        <v>10.801</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41273</v>
+        <v>37619</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>37.578000000000003</v>
+        <v>22.972000000000001</v>
       </c>
       <c r="D10">
-        <v>539.65</v>
+        <v>395.80200000000002</v>
       </c>
       <c r="E10">
-        <v>94.102999999999994</v>
+        <v>57.497</v>
       </c>
       <c r="F10">
-        <v>160.67500000000001</v>
+        <v>101.408</v>
       </c>
       <c r="G10">
-        <v>306.267</v>
+        <v>147.05699999999999</v>
       </c>
       <c r="H10">
-        <v>478.197</v>
+        <v>422.67500000000001</v>
       </c>
       <c r="I10">
-        <v>77.414000000000001</v>
+        <v>46.131</v>
       </c>
       <c r="J10">
-        <v>1536.443</v>
+        <v>599.17999999999995</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,37 +1556,37 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>229.49799999999999</v>
+        <v>157.25</v>
       </c>
       <c r="O10">
-        <v>1813.72</v>
+        <v>798.03</v>
       </c>
       <c r="P10">
-        <v>1560.7919999999999</v>
+        <v>602.02300000000002</v>
       </c>
       <c r="Q10">
-        <v>20.263000000000002</v>
+        <v>17.5</v>
       </c>
       <c r="R10">
-        <v>41273</v>
+        <v>37619</v>
       </c>
       <c r="S10">
-        <v>10000</v>
+        <v>13800</v>
       </c>
       <c r="T10">
-        <v>-1335.5229999999999</v>
+        <v>-375.35500000000002</v>
       </c>
       <c r="U10">
-        <v>54.813000000000002</v>
+        <v>22.596</v>
       </c>
       <c r="V10">
-        <v>75.067999999999998</v>
+        <v>39.334000000000003</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>-40.145000000000003</v>
+        <v>-8.9169999999999998</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1475,39 +1595,39 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>37.578000000000003</v>
+        <v>22.972000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41357</v>
+        <v>37703</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>34.42</v>
+        <v>18.260999999999999</v>
       </c>
       <c r="D11">
-        <v>417.61700000000002</v>
+        <v>312.25200000000001</v>
       </c>
       <c r="E11">
-        <v>90.156000000000006</v>
+        <v>56.209000000000003</v>
       </c>
       <c r="F11">
-        <v>129.80600000000001</v>
+        <v>80.447999999999993</v>
       </c>
       <c r="G11">
-        <v>308.55700000000002</v>
+        <v>154.55000000000001</v>
       </c>
       <c r="H11">
-        <v>476.55500000000001</v>
+        <v>424.08600000000001</v>
       </c>
       <c r="I11">
-        <v>69.087000000000003</v>
+        <v>50.567999999999998</v>
       </c>
       <c r="J11">
-        <v>1530.4110000000001</v>
+        <v>577.77800000000002</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,40 +1636,40 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-6.17</v>
+        <v>-20.5</v>
       </c>
       <c r="N11">
-        <v>223.58500000000001</v>
+        <v>160.86000000000001</v>
       </c>
       <c r="O11">
-        <v>1799.9269999999999</v>
+        <v>780.37900000000002</v>
       </c>
       <c r="P11">
-        <v>1554.6220000000001</v>
+        <v>581.52599999999995</v>
       </c>
       <c r="Q11">
-        <v>20.268000000000001</v>
+        <v>7.766</v>
       </c>
       <c r="R11">
-        <v>41357</v>
+        <v>37703</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>-1323.3720000000001</v>
+        <v>-356.29300000000001</v>
       </c>
       <c r="U11">
-        <v>75.081000000000003</v>
+        <v>30.238</v>
       </c>
       <c r="V11">
-        <v>47.649000000000001</v>
+        <v>32.578000000000003</v>
       </c>
       <c r="W11">
-        <v>-0.32700000000000001</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>-23.07</v>
+        <v>-20.593</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1558,39 +1678,39 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>34.42</v>
+        <v>18.260999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41441</v>
+        <v>37787</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>33.270000000000003</v>
+        <v>17.486000000000001</v>
       </c>
       <c r="D12">
-        <v>414.00900000000001</v>
+        <v>295.21600000000001</v>
       </c>
       <c r="E12">
-        <v>93.986999999999995</v>
+        <v>56.268999999999998</v>
       </c>
       <c r="F12">
-        <v>125.98699999999999</v>
+        <v>76.793000000000006</v>
       </c>
       <c r="G12">
-        <v>302.536</v>
+        <v>179.71100000000001</v>
       </c>
       <c r="H12">
-        <v>468.79899999999998</v>
+        <v>446.37099999999998</v>
       </c>
       <c r="I12">
-        <v>63.875</v>
+        <v>45.122999999999998</v>
       </c>
       <c r="J12">
-        <v>1524.42</v>
+        <v>576.90499999999997</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,37 +1722,37 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>228.81200000000001</v>
+        <v>163.387</v>
       </c>
       <c r="O12">
-        <v>1797.59</v>
+        <v>784.68899999999996</v>
       </c>
       <c r="P12">
-        <v>1548.5730000000001</v>
+        <v>580.66600000000005</v>
       </c>
       <c r="Q12">
-        <v>-34.243000000000002</v>
+        <v>21.509</v>
       </c>
       <c r="R12">
-        <v>41441</v>
+        <v>37787</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>-1328.7909999999999</v>
+        <v>-338.31799999999998</v>
       </c>
       <c r="U12">
-        <v>40.838000000000001</v>
+        <v>51.746000000000002</v>
       </c>
       <c r="V12">
-        <v>19.190999999999999</v>
+        <v>27.86</v>
       </c>
       <c r="W12">
-        <v>-11.127000000000001</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>-49.723999999999997</v>
+        <v>-1.1830000000000001</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1641,39 +1761,39 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>33.270000000000003</v>
+        <v>17.486000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41525</v>
+        <v>37871</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>30.632000000000001</v>
+        <v>-18.038</v>
       </c>
       <c r="D13">
-        <v>404.05</v>
+        <v>292.84800000000001</v>
       </c>
       <c r="E13">
-        <v>92.765000000000001</v>
+        <v>60.338999999999999</v>
       </c>
       <c r="F13">
-        <v>120.634</v>
+        <v>71.5</v>
       </c>
       <c r="G13">
-        <v>302.41000000000003</v>
+        <v>159.86000000000001</v>
       </c>
       <c r="H13">
-        <v>468.524</v>
+        <v>422.435</v>
       </c>
       <c r="I13">
-        <v>63.006</v>
+        <v>48.954999999999998</v>
       </c>
       <c r="J13">
-        <v>1518.383</v>
+        <v>949.48</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,37 +1805,37 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>225.476</v>
+        <v>169.107</v>
       </c>
       <c r="O13">
-        <v>1790.6990000000001</v>
+        <v>1163.8710000000001</v>
       </c>
       <c r="P13">
-        <v>1542.5229999999999</v>
+        <v>971.57100000000003</v>
       </c>
       <c r="Q13">
-        <v>-8.7590000000000003</v>
+        <v>-26.736000000000001</v>
       </c>
       <c r="R13">
-        <v>41525</v>
+        <v>37871</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>-1322.175</v>
+        <v>-741.43600000000004</v>
       </c>
       <c r="U13">
-        <v>32.079000000000001</v>
+        <v>25.01</v>
       </c>
       <c r="V13">
-        <v>37.734999999999999</v>
+        <v>-8.3439999999999994</v>
       </c>
       <c r="W13">
-        <v>-11.769</v>
+        <v>-188.333</v>
       </c>
       <c r="X13">
-        <v>-35.648000000000003</v>
+        <v>-17.87</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1724,39 +1844,39 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>30.632000000000001</v>
+        <v>-18.038</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41637</v>
+        <v>37983</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>44.662999999999997</v>
+        <v>21.327999999999999</v>
       </c>
       <c r="D14">
-        <v>566.54700000000003</v>
+        <v>433.00599999999997</v>
       </c>
       <c r="E14">
-        <v>105.779</v>
+        <v>64.570999999999998</v>
       </c>
       <c r="F14">
-        <v>171.047</v>
+        <v>106.879</v>
       </c>
       <c r="G14">
-        <v>351.54</v>
+        <v>186.541</v>
       </c>
       <c r="H14">
-        <v>525.255</v>
+        <v>452.11399999999998</v>
       </c>
       <c r="I14">
-        <v>83.408000000000001</v>
+        <v>56.927999999999997</v>
       </c>
       <c r="J14">
-        <v>1512.299</v>
+        <v>941.16499999999996</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,37 +1888,37 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>254.61099999999999</v>
+        <v>187.80199999999999</v>
       </c>
       <c r="O14">
-        <v>1815.4570000000001</v>
+        <v>1170.077</v>
       </c>
       <c r="P14">
-        <v>1536.443</v>
+        <v>959.73699999999997</v>
       </c>
       <c r="Q14">
-        <v>-17.696000000000002</v>
+        <v>18.401</v>
       </c>
       <c r="R14">
-        <v>41637</v>
+        <v>37983</v>
       </c>
       <c r="S14">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="T14">
-        <v>-1290.202</v>
+        <v>-717.96299999999997</v>
       </c>
       <c r="U14">
-        <v>14.382999999999999</v>
+        <v>46.390999999999998</v>
       </c>
       <c r="V14">
-        <v>89.414000000000001</v>
+        <v>51.113</v>
       </c>
       <c r="W14">
-        <v>-11.018000000000001</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>-26.361999999999998</v>
+        <v>-23.234999999999999</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1807,39 +1927,39 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>44.662999999999997</v>
+        <v>21.327999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41721</v>
+        <v>38067</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>40.473999999999997</v>
+        <v>18.408000000000001</v>
       </c>
       <c r="D15">
-        <v>453.85199999999998</v>
+        <v>318.75400000000002</v>
       </c>
       <c r="E15">
-        <v>103.881</v>
+        <v>60.296999999999997</v>
       </c>
       <c r="F15">
-        <v>137.042</v>
+        <v>81.111000000000004</v>
       </c>
       <c r="G15">
-        <v>353.88</v>
+        <v>163.072</v>
       </c>
       <c r="H15">
-        <v>524.31200000000001</v>
+        <v>425.1</v>
       </c>
       <c r="I15">
-        <v>73.183000000000007</v>
+        <v>49.097999999999999</v>
       </c>
       <c r="J15">
-        <v>1506.2560000000001</v>
+        <v>942.03499999999997</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,40 +1968,40 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-6.032</v>
+        <v>-18.370999999999999</v>
       </c>
       <c r="N15">
-        <v>240.404</v>
+        <v>139.679</v>
       </c>
       <c r="O15">
-        <v>1793.268</v>
+        <v>1124.5070000000001</v>
       </c>
       <c r="P15">
-        <v>1530.4110000000001</v>
+        <v>942.32100000000003</v>
       </c>
       <c r="Q15">
-        <v>23.992999999999999</v>
+        <v>-7.7990000000000004</v>
       </c>
       <c r="R15">
-        <v>41721</v>
+        <v>38067</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>-1268.9559999999999</v>
+        <v>-699.40700000000004</v>
       </c>
       <c r="U15">
-        <v>38.375999999999998</v>
+        <v>36.731999999999999</v>
       </c>
       <c r="V15">
-        <v>36.204000000000001</v>
+        <v>17.05</v>
       </c>
       <c r="W15">
-        <v>-11.053000000000001</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>-26.231999999999999</v>
+        <v>-18.600999999999999</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1890,39 +2010,39 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>40.473999999999997</v>
+        <v>18.408000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41805</v>
+        <v>38151</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>38.462000000000003</v>
+        <v>15.882999999999999</v>
       </c>
       <c r="D16">
-        <v>450.46300000000002</v>
+        <v>324.23700000000002</v>
       </c>
       <c r="E16">
-        <v>105.97</v>
+        <v>67.135999999999996</v>
       </c>
       <c r="F16">
-        <v>134.64500000000001</v>
+        <v>77.602000000000004</v>
       </c>
       <c r="G16">
-        <v>320.98</v>
+        <v>182.625</v>
       </c>
       <c r="H16">
-        <v>495.67099999999999</v>
+        <v>449.45699999999999</v>
       </c>
       <c r="I16">
-        <v>73.183999999999997</v>
+        <v>49.484999999999999</v>
       </c>
       <c r="J16">
-        <v>1523.8820000000001</v>
+        <v>928.90499999999997</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,37 +2054,37 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>216.00700000000001</v>
+        <v>150.126</v>
       </c>
       <c r="O16">
-        <v>1785.3530000000001</v>
+        <v>1126.145</v>
       </c>
       <c r="P16">
-        <v>1524.42</v>
+        <v>929.21100000000001</v>
       </c>
       <c r="Q16">
-        <v>-23.071999999999999</v>
+        <v>16.66</v>
       </c>
       <c r="R16">
-        <v>41805</v>
+        <v>38151</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>-1289.682</v>
+        <v>-676.68799999999999</v>
       </c>
       <c r="U16">
-        <v>15.304</v>
+        <v>51.302999999999997</v>
       </c>
       <c r="V16">
-        <v>24.585999999999999</v>
+        <v>35.896000000000001</v>
       </c>
       <c r="W16">
-        <v>-14.077</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>-69.322000000000003</v>
+        <v>-8.6829999999999998</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1973,39 +2093,39 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>38.462000000000003</v>
+        <v>15.882999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41889</v>
+        <v>38235</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>35.618000000000002</v>
+        <v>0.97899999999999998</v>
       </c>
       <c r="D17">
-        <v>446.56799999999998</v>
+        <v>324.97800000000001</v>
       </c>
       <c r="E17">
-        <v>103.54</v>
+        <v>64.090999999999994</v>
       </c>
       <c r="F17">
-        <v>133.51400000000001</v>
+        <v>79.281999999999996</v>
       </c>
       <c r="G17">
-        <v>333.32400000000001</v>
+        <v>162.59899999999999</v>
       </c>
       <c r="H17">
-        <v>510.88299999999998</v>
+        <v>421.04300000000001</v>
       </c>
       <c r="I17">
-        <v>73.941999999999993</v>
+        <v>50.000999999999998</v>
       </c>
       <c r="J17">
-        <v>1523.74</v>
+        <v>804.00400000000002</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,37 +2137,37 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>220.386</v>
+        <v>146.12100000000001</v>
       </c>
       <c r="O17">
-        <v>1792.625</v>
+        <v>995.97799999999995</v>
       </c>
       <c r="P17">
-        <v>1524.289</v>
+        <v>804.32100000000003</v>
       </c>
       <c r="Q17">
-        <v>15.632</v>
+        <v>-30.093</v>
       </c>
       <c r="R17">
-        <v>41889</v>
+        <v>38235</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>-1281.742</v>
+        <v>-574.93499999999995</v>
       </c>
       <c r="U17">
-        <v>30.936</v>
+        <v>20.222999999999999</v>
       </c>
       <c r="V17">
-        <v>58.094999999999999</v>
+        <v>6.1989999999999998</v>
       </c>
       <c r="W17">
-        <v>-14.077999999999999</v>
+        <v>-16.88</v>
       </c>
       <c r="X17">
-        <v>-32.109000000000002</v>
+        <v>-26.888999999999999</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2056,39 +2176,39 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>35.618000000000002</v>
+        <v>0.97899999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42001</v>
+        <v>38354</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>48.033000000000001</v>
+        <v>27.016999999999999</v>
       </c>
       <c r="D18">
-        <v>642.95000000000005</v>
+        <v>478.52800000000002</v>
       </c>
       <c r="E18">
-        <v>118.395</v>
+        <v>73.138000000000005</v>
       </c>
       <c r="F18">
-        <v>189.565</v>
+        <v>115.68600000000001</v>
       </c>
       <c r="G18">
-        <v>428.36099999999999</v>
+        <v>189.49100000000001</v>
       </c>
       <c r="H18">
-        <v>596.33299999999997</v>
+        <v>447.34699999999998</v>
       </c>
       <c r="I18">
-        <v>86.552000000000007</v>
+        <v>55.35</v>
       </c>
       <c r="J18">
-        <v>1500.5989999999999</v>
+        <v>755.40499999999997</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,78 +2220,78 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>265.608</v>
+        <v>189.667</v>
       </c>
       <c r="O18">
-        <v>1815.798</v>
+        <v>997.22699999999998</v>
       </c>
       <c r="P18">
-        <v>1501.164</v>
+        <v>780.7</v>
       </c>
       <c r="Q18">
-        <v>-8.1000000000000003E-2</v>
+        <v>15.237</v>
       </c>
       <c r="R18">
-        <v>42001</v>
+        <v>38354</v>
       </c>
       <c r="S18">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="T18">
-        <v>-1219.4649999999999</v>
+        <v>-549.88</v>
       </c>
       <c r="U18">
-        <v>30.855</v>
+        <v>40.396000000000001</v>
       </c>
       <c r="V18">
-        <v>73.453999999999994</v>
+        <v>53.040999999999997</v>
       </c>
       <c r="W18">
-        <v>-13.635</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>8.7650000000000006</v>
+        <v>-28.454000000000001</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>1.6140000000000001</v>
       </c>
       <c r="AA18">
-        <v>48.033000000000001</v>
+        <v>27.016999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42085</v>
+        <v>38438</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>46.289000000000001</v>
+        <v>24.68</v>
       </c>
       <c r="D19">
-        <v>502.02699999999999</v>
+        <v>369.66800000000001</v>
       </c>
       <c r="E19">
-        <v>118.08499999999999</v>
+        <v>73.055000000000007</v>
       </c>
       <c r="F19">
-        <v>157.066</v>
+        <v>93.013000000000005</v>
       </c>
       <c r="G19">
-        <v>446.041</v>
+        <v>197.64500000000001</v>
       </c>
       <c r="H19">
-        <v>636.98099999999999</v>
+        <v>450.02499999999998</v>
       </c>
       <c r="I19">
-        <v>88.322999999999993</v>
+        <v>58.360999999999997</v>
       </c>
       <c r="J19">
-        <v>1527.202</v>
+        <v>751.58199999999999</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,40 +2300,40 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-0.10299999999999999</v>
+        <v>-25.08</v>
       </c>
       <c r="N19">
-        <v>275.31299999999999</v>
+        <v>171.58799999999999</v>
       </c>
       <c r="O19">
-        <v>1850.559</v>
+        <v>975.58699999999999</v>
       </c>
       <c r="P19">
-        <v>1527.4359999999999</v>
+        <v>751.87300000000005</v>
       </c>
       <c r="Q19">
-        <v>44.136000000000003</v>
+        <v>12.837</v>
       </c>
       <c r="R19">
-        <v>42085</v>
+        <v>38438</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>-1213.578</v>
+        <v>-525.56200000000001</v>
       </c>
       <c r="U19">
-        <v>74.991</v>
+        <v>53.232999999999997</v>
       </c>
       <c r="V19">
-        <v>84.745000000000005</v>
+        <v>38.595999999999997</v>
       </c>
       <c r="W19">
-        <v>-13.965</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>-41.338999999999999</v>
+        <v>-21.106000000000002</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2222,39 +2342,39 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>46.289000000000001</v>
+        <v>24.68</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42169</v>
+        <v>38522</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>45.908999999999999</v>
+        <v>23.120999999999999</v>
       </c>
       <c r="D20">
-        <v>488.62200000000001</v>
+        <v>346.95400000000001</v>
       </c>
       <c r="E20">
-        <v>113.328</v>
+        <v>67.77</v>
       </c>
       <c r="F20">
-        <v>152.672</v>
+        <v>88.399000000000001</v>
       </c>
       <c r="G20">
-        <v>404.50099999999998</v>
+        <v>165.47200000000001</v>
       </c>
       <c r="H20">
-        <v>597.90099999999995</v>
+        <v>419.65499999999997</v>
       </c>
       <c r="I20">
-        <v>76.960999999999999</v>
+        <v>51.926000000000002</v>
       </c>
       <c r="J20">
-        <v>1527.1610000000001</v>
+        <v>754.18200000000002</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,37 +2386,37 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>269.21300000000002</v>
+        <v>186.65100000000001</v>
       </c>
       <c r="O20">
-        <v>1843.556</v>
+        <v>993.78</v>
       </c>
       <c r="P20">
-        <v>1527.3979999999999</v>
+        <v>770.67200000000003</v>
       </c>
       <c r="Q20">
-        <v>-49.1</v>
+        <v>-42.728999999999999</v>
       </c>
       <c r="R20">
-        <v>42169</v>
+        <v>38522</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>-1245.655</v>
+        <v>-574.125</v>
       </c>
       <c r="U20">
-        <v>25.890999999999998</v>
+        <v>10.504</v>
       </c>
       <c r="V20">
-        <v>18.849</v>
+        <v>20.338000000000001</v>
       </c>
       <c r="W20">
-        <v>-17.074000000000002</v>
+        <v>-6.9029999999999996</v>
       </c>
       <c r="X20">
-        <v>-81.588999999999999</v>
+        <v>-54.844999999999999</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2305,39 +2425,39 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>45.908999999999999</v>
+        <v>23.120999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42253</v>
+        <v>38606</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>37.832000000000001</v>
+        <v>20.285</v>
       </c>
       <c r="D21">
-        <v>484.69600000000003</v>
+        <v>337.57600000000002</v>
       </c>
       <c r="E21">
-        <v>112.398</v>
+        <v>68.096000000000004</v>
       </c>
       <c r="F21">
-        <v>141.95400000000001</v>
+        <v>86.512</v>
       </c>
       <c r="G21">
-        <v>404.43200000000002</v>
+        <v>168.499</v>
       </c>
       <c r="H21">
-        <v>603.19600000000003</v>
+        <v>414.12900000000002</v>
       </c>
       <c r="I21">
-        <v>86.423000000000002</v>
+        <v>53.56</v>
       </c>
       <c r="J21">
-        <v>1527.664</v>
+        <v>752.50800000000004</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,37 +2469,37 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>279.291</v>
+        <v>165.78100000000001</v>
       </c>
       <c r="O21">
-        <v>1859.145</v>
+        <v>966.69600000000003</v>
       </c>
       <c r="P21">
-        <v>1527.92</v>
+        <v>755.20100000000002</v>
       </c>
       <c r="Q21">
-        <v>6.6150000000000002</v>
+        <v>11.398</v>
       </c>
       <c r="R21">
-        <v>42253</v>
+        <v>38606</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>-1255.9490000000001</v>
+        <v>-552.56700000000001</v>
       </c>
       <c r="U21">
-        <v>32.506</v>
+        <v>21.902000000000001</v>
       </c>
       <c r="V21">
-        <v>63.713999999999999</v>
+        <v>32.140999999999998</v>
       </c>
       <c r="W21">
-        <v>-17.102</v>
+        <v>-6.609</v>
       </c>
       <c r="X21">
-        <v>-51.198999999999998</v>
+        <v>-15.138999999999999</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2388,39 +2508,39 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>37.832000000000001</v>
+        <v>20.283999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42372</v>
+        <v>38718</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>62.759</v>
+        <v>40.195999999999998</v>
       </c>
       <c r="D22">
-        <v>741.18299999999999</v>
+        <v>457.399</v>
       </c>
       <c r="E22">
-        <v>131.58199999999999</v>
+        <v>74.436999999999998</v>
       </c>
       <c r="F22">
-        <v>231.43899999999999</v>
+        <v>117.364</v>
       </c>
       <c r="G22">
-        <v>602.63699999999994</v>
+        <v>221.346</v>
       </c>
       <c r="H22">
-        <v>799.84500000000003</v>
+        <v>461.07400000000001</v>
       </c>
       <c r="I22">
-        <v>106.92700000000001</v>
+        <v>60.33</v>
       </c>
       <c r="J22">
-        <v>2181.46</v>
+        <v>702.35799999999995</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,78 +2552,78 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>375.983</v>
+        <v>217.38499999999999</v>
       </c>
       <c r="O22">
-        <v>2600.096</v>
+        <v>972.05899999999997</v>
       </c>
       <c r="P22">
-        <v>2240.7930000000001</v>
+        <v>737.66200000000003</v>
       </c>
       <c r="Q22">
-        <v>100.943</v>
+        <v>45.017000000000003</v>
       </c>
       <c r="R22">
-        <v>42372</v>
+        <v>38718</v>
       </c>
       <c r="S22">
-        <v>11900</v>
+        <v>13500</v>
       </c>
       <c r="T22">
-        <v>-1800.251</v>
+        <v>-510.98500000000001</v>
       </c>
       <c r="U22">
-        <v>133.44900000000001</v>
+        <v>66.918999999999997</v>
       </c>
       <c r="V22">
-        <v>124.47799999999999</v>
+        <v>50.122</v>
       </c>
       <c r="W22">
-        <v>-32.188000000000002</v>
+        <v>-13.387</v>
       </c>
       <c r="X22">
-        <v>93.191000000000003</v>
+        <v>-23.492999999999999</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>25.532</v>
       </c>
       <c r="AA22">
-        <v>62.759</v>
+        <v>40.195999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42456</v>
+        <v>38802</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>45.451000000000001</v>
+        <v>26.152000000000001</v>
       </c>
       <c r="D23">
-        <v>539.17499999999995</v>
+        <v>347.654</v>
       </c>
       <c r="E23">
-        <v>130.52000000000001</v>
+        <v>70.704999999999998</v>
       </c>
       <c r="F23">
-        <v>167.21600000000001</v>
+        <v>94.295000000000002</v>
       </c>
       <c r="G23">
-        <v>626.48599999999999</v>
+        <v>154.07</v>
       </c>
       <c r="H23">
-        <v>820.75900000000001</v>
+        <v>386.89499999999998</v>
       </c>
       <c r="I23">
-        <v>86.137</v>
+        <v>50.973999999999997</v>
       </c>
       <c r="J23">
-        <v>2173.4029999999998</v>
+        <v>800.88800000000003</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2512,40 +2632,40 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-27.459</v>
+        <v>-35.073999999999998</v>
       </c>
       <c r="N23">
-        <v>333.726</v>
+        <v>164.09299999999999</v>
       </c>
       <c r="O23">
-        <v>2551.038</v>
+        <v>1018.755</v>
       </c>
       <c r="P23">
-        <v>2214.9960000000001</v>
+        <v>801.19799999999998</v>
       </c>
       <c r="Q23">
-        <v>44.802999999999997</v>
+        <v>-50.546999999999997</v>
       </c>
       <c r="R23">
-        <v>42456</v>
+        <v>38802</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>-1730.279</v>
+        <v>-631.86</v>
       </c>
       <c r="U23">
-        <v>178.25200000000001</v>
+        <v>16.372</v>
       </c>
       <c r="V23">
-        <v>17.148</v>
+        <v>28.669</v>
       </c>
       <c r="W23">
-        <v>-0.16400000000000001</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>10.419</v>
+        <v>-75.400000000000006</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2554,39 +2674,39 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>45.451000000000001</v>
+        <v>26.152000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42540</v>
+        <v>38886</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>49.261000000000003</v>
+        <v>24.506</v>
       </c>
       <c r="D24">
-        <v>547.34100000000001</v>
+        <v>327.74099999999999</v>
       </c>
       <c r="E24">
-        <v>132.53299999999999</v>
+        <v>69.242999999999995</v>
       </c>
       <c r="F24">
-        <v>171.83799999999999</v>
+        <v>88.765000000000001</v>
       </c>
       <c r="G24">
-        <v>450.44900000000001</v>
+        <v>164.042</v>
       </c>
       <c r="H24">
-        <v>652.27800000000002</v>
+        <v>395.02800000000002</v>
       </c>
       <c r="I24">
-        <v>84.902000000000001</v>
+        <v>52.277999999999999</v>
       </c>
       <c r="J24">
-        <v>2165.1770000000001</v>
+        <v>788.44600000000003</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,37 +2718,37 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>356.72699999999998</v>
+        <v>159.88900000000001</v>
       </c>
       <c r="O24">
-        <v>2567.0320000000002</v>
+        <v>1004.14</v>
       </c>
       <c r="P24">
-        <v>2214.047</v>
+        <v>788.76199999999994</v>
       </c>
       <c r="Q24">
-        <v>-155.947</v>
+        <v>7.34</v>
       </c>
       <c r="R24">
-        <v>42540</v>
+        <v>38886</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>-1914.7539999999999</v>
+        <v>-609.11199999999997</v>
       </c>
       <c r="U24">
-        <v>22.305</v>
+        <v>23.712</v>
       </c>
       <c r="V24">
-        <v>52.305</v>
+        <v>25.254999999999999</v>
       </c>
       <c r="W24">
-        <v>-18.934999999999999</v>
+        <v>-7.4189999999999996</v>
       </c>
       <c r="X24">
-        <v>-240.87100000000001</v>
+        <v>-13.53</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2637,39 +2757,39 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>49.261000000000003</v>
+        <v>24.506</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42624</v>
+        <v>38970</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>47.232999999999997</v>
+        <v>24.524000000000001</v>
       </c>
       <c r="D25">
-        <v>566.67700000000002</v>
+        <v>326.66899999999998</v>
       </c>
       <c r="E25">
-        <v>138.107</v>
+        <v>66.552999999999997</v>
       </c>
       <c r="F25">
-        <v>173.90299999999999</v>
+        <v>85.778999999999996</v>
       </c>
       <c r="G25">
-        <v>472.59</v>
+        <v>137.83799999999999</v>
       </c>
       <c r="H25">
-        <v>676.60699999999997</v>
+        <v>359.649</v>
       </c>
       <c r="I25">
-        <v>103.994</v>
+        <v>55.301000000000002</v>
       </c>
       <c r="J25">
-        <v>2156.884</v>
+        <v>740.65599999999995</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,37 +2801,37 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>410.517</v>
+        <v>157.82900000000001</v>
       </c>
       <c r="O25">
-        <v>2612.7530000000002</v>
+        <v>952.08399999999995</v>
       </c>
       <c r="P25">
-        <v>2230.761</v>
+        <v>740.93499999999995</v>
       </c>
       <c r="Q25">
-        <v>7.6760000000000002</v>
+        <v>-12.669</v>
       </c>
       <c r="R25">
-        <v>42624</v>
+        <v>38970</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>-1936.146</v>
+        <v>-592.43499999999995</v>
       </c>
       <c r="U25">
-        <v>29.981000000000002</v>
+        <v>11.042999999999999</v>
       </c>
       <c r="V25">
-        <v>93.164000000000001</v>
+        <v>36.192</v>
       </c>
       <c r="W25">
-        <v>-18.449000000000002</v>
+        <v>-7.4560000000000004</v>
       </c>
       <c r="X25">
-        <v>-57.347999999999999</v>
+        <v>-55.37</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2720,39 +2840,39 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>47.231999999999999</v>
+        <v>24.524000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42736</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>72.733000000000004</v>
+        <v>31.045000000000002</v>
       </c>
       <c r="D26">
-        <v>819.43499999999995</v>
+        <v>435.25400000000002</v>
       </c>
       <c r="E26">
-        <v>150.369</v>
+        <v>65.697000000000003</v>
       </c>
       <c r="F26">
-        <v>254.73400000000001</v>
+        <v>115.69199999999999</v>
       </c>
       <c r="G26">
-        <v>495.87299999999999</v>
+        <v>166.30500000000001</v>
       </c>
       <c r="H26">
-        <v>716.29499999999996</v>
+        <v>380.20299999999997</v>
       </c>
       <c r="I26">
-        <v>111.51</v>
+        <v>55.036000000000001</v>
       </c>
       <c r="J26">
-        <v>2148.9899999999998</v>
+        <v>740.12</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,37 +2884,37 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>403.69799999999998</v>
+        <v>155.20099999999999</v>
       </c>
       <c r="O26">
-        <v>2599.4380000000001</v>
+        <v>945.096</v>
       </c>
       <c r="P26">
-        <v>2187.877</v>
+        <v>741.59699999999998</v>
       </c>
       <c r="Q26">
-        <v>12.834</v>
+        <v>27.178999999999998</v>
       </c>
       <c r="R26">
-        <v>42736</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>14100</v>
+        <v>13300</v>
       </c>
       <c r="T26">
-        <v>-1883.143</v>
+        <v>-564.89300000000003</v>
       </c>
       <c r="U26">
-        <v>42.814999999999998</v>
+        <v>38.222000000000001</v>
       </c>
       <c r="V26">
-        <v>124.65600000000001</v>
+        <v>42.887</v>
       </c>
       <c r="W26">
-        <v>-36.377000000000002</v>
+        <v>-14.965999999999999</v>
       </c>
       <c r="X26">
-        <v>-87.992000000000004</v>
+        <v>-11.457000000000001</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2803,39 +2923,39 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>72.733000000000004</v>
+        <v>31.045000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42820</v>
+        <v>39166</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>62.469000000000001</v>
+        <v>8.3979999999999997</v>
       </c>
       <c r="D27">
-        <v>624.21699999999998</v>
+        <v>339.32100000000003</v>
       </c>
       <c r="E27">
-        <v>150.93100000000001</v>
+        <v>62.97</v>
       </c>
       <c r="F27">
-        <v>193.816</v>
+        <v>91.07</v>
       </c>
       <c r="G27">
-        <v>528.63599999999997</v>
+        <v>183.63399999999999</v>
       </c>
       <c r="H27">
-        <v>742.46199999999999</v>
+        <v>420.68099999999998</v>
       </c>
       <c r="I27">
-        <v>110.245</v>
+        <v>55.16</v>
       </c>
       <c r="J27">
-        <v>2179.2579999999998</v>
+        <v>785.06100000000004</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,40 +2964,40 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-9.718</v>
+        <v>-736.65599999999995</v>
       </c>
       <c r="N27">
-        <v>369.44</v>
+        <v>144.36000000000001</v>
       </c>
       <c r="O27">
-        <v>2596.1529999999998</v>
+        <v>981.86500000000001</v>
       </c>
       <c r="P27">
-        <v>2179.558</v>
+        <v>785.68</v>
       </c>
       <c r="Q27">
-        <v>39.384</v>
+        <v>28.884</v>
       </c>
       <c r="R27">
-        <v>42820</v>
+        <v>39166</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>-1853.691</v>
+        <v>-561.18399999999997</v>
       </c>
       <c r="U27">
-        <v>52.094000000000001</v>
+        <v>67.105999999999995</v>
       </c>
       <c r="V27">
-        <v>76.628</v>
+        <v>6.9080000000000004</v>
       </c>
       <c r="W27">
-        <v>-0.253</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>-26.155000000000001</v>
+        <v>25.012</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2886,39 +3006,39 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>62.469000000000001</v>
+        <v>8.3979999999999997</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42904</v>
+        <v>39250</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>65.741</v>
+        <v>2.3159999999999998</v>
       </c>
       <c r="D28">
-        <v>628.61099999999999</v>
+        <v>340.28899999999999</v>
       </c>
       <c r="E28">
-        <v>151.64099999999999</v>
+        <v>69.328999999999994</v>
       </c>
       <c r="F28">
-        <v>192.845</v>
+        <v>91.867000000000004</v>
       </c>
       <c r="G28">
-        <v>560.90300000000002</v>
+        <v>233.62</v>
       </c>
       <c r="H28">
-        <v>781.79700000000003</v>
+        <v>474.06200000000001</v>
       </c>
       <c r="I28">
-        <v>104.62</v>
+        <v>54.57</v>
       </c>
       <c r="J28">
-        <v>2180.518</v>
+        <v>1709.9829999999999</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,37 +3050,37 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>351.512</v>
+        <v>147.10300000000001</v>
       </c>
       <c r="O28">
-        <v>2584.8679999999999</v>
+        <v>1908.136</v>
       </c>
       <c r="P28">
-        <v>2180.8229999999999</v>
+        <v>1710.2819999999999</v>
       </c>
       <c r="Q28">
-        <v>2.9169999999999998</v>
+        <v>-56.658000000000001</v>
       </c>
       <c r="R28">
-        <v>42904</v>
+        <v>39250</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>-1803.0709999999999</v>
+        <v>-1434.0740000000001</v>
       </c>
       <c r="U28">
-        <v>52.243000000000002</v>
+        <v>93.3</v>
       </c>
       <c r="V28">
-        <v>36.142000000000003</v>
+        <v>17.311</v>
       </c>
       <c r="W28">
-        <v>-22.027000000000001</v>
+        <v>-50.570999999999998</v>
       </c>
       <c r="X28">
-        <v>-19.638999999999999</v>
+        <v>13.760999999999999</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2969,39 +3089,39 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>65.741</v>
+        <v>2.3170000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>42988</v>
+        <v>39334</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>56.368000000000002</v>
+        <v>10.991</v>
       </c>
       <c r="D29">
-        <v>643.64200000000005</v>
+        <v>337.31799999999998</v>
       </c>
       <c r="E29">
-        <v>154.47499999999999</v>
+        <v>68.034999999999997</v>
       </c>
       <c r="F29">
-        <v>198.47800000000001</v>
+        <v>83.927999999999997</v>
       </c>
       <c r="G29">
-        <v>592.58600000000001</v>
+        <v>260.14800000000002</v>
       </c>
       <c r="H29">
-        <v>816.23500000000001</v>
+        <v>497.16699999999997</v>
       </c>
       <c r="I29">
-        <v>109.756</v>
+        <v>48.683</v>
       </c>
       <c r="J29">
-        <v>3128.0479999999998</v>
+        <v>1704.874</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,37 +3133,37 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>398.53</v>
+        <v>177.934</v>
       </c>
       <c r="O29">
-        <v>3581.5790000000002</v>
+        <v>1931.4259999999999</v>
       </c>
       <c r="P29">
-        <v>3160.3609999999999</v>
+        <v>1705.1780000000001</v>
       </c>
       <c r="Q29">
-        <v>47.71</v>
+        <v>-3.032</v>
       </c>
       <c r="R29">
-        <v>42988</v>
+        <v>39334</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>-2765.3440000000001</v>
+        <v>-1434.259</v>
       </c>
       <c r="U29">
-        <v>61.36</v>
+        <v>114.917</v>
       </c>
       <c r="V29">
-        <v>115.32899999999999</v>
+        <v>42</v>
       </c>
       <c r="W29">
-        <v>-22.35</v>
+        <v>-1E-3</v>
       </c>
       <c r="X29">
-        <v>-54.073</v>
+        <v>-18.885000000000002</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -3052,39 +3172,39 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>56.368000000000002</v>
+        <v>10.991</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39446</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>93.326999999999998</v>
+        <v>16.177</v>
       </c>
       <c r="D30">
-        <v>891.50900000000001</v>
+        <v>445.94200000000001</v>
       </c>
       <c r="E30">
-        <v>173.67699999999999</v>
+        <v>68.445999999999998</v>
       </c>
       <c r="F30">
-        <v>280.85199999999998</v>
+        <v>111.989</v>
       </c>
       <c r="G30">
-        <v>579.78</v>
+        <v>226.88200000000001</v>
       </c>
       <c r="H30">
-        <v>836.75300000000004</v>
+        <v>473.16399999999999</v>
       </c>
       <c r="I30">
-        <v>106.89400000000001</v>
+        <v>60.411000000000001</v>
       </c>
       <c r="J30">
-        <v>3121.49</v>
+        <v>1704.771</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,37 +3216,37 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>398.28500000000003</v>
+        <v>175.50800000000001</v>
       </c>
       <c r="O30">
-        <v>3572.1370000000002</v>
+        <v>1923.3030000000001</v>
       </c>
       <c r="P30">
-        <v>3153.8139999999999</v>
+        <v>1720.0830000000001</v>
       </c>
       <c r="Q30">
-        <v>-29.567</v>
+        <v>3.9279999999999999</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39446</v>
       </c>
       <c r="S30">
-        <v>14100</v>
+        <v>12500</v>
       </c>
       <c r="T30">
-        <v>-2735.384</v>
+        <v>-1450.1389999999999</v>
       </c>
       <c r="U30">
-        <v>35.768000000000001</v>
+        <v>11.343999999999999</v>
       </c>
       <c r="V30">
-        <v>113.16200000000001</v>
+        <v>17.969000000000001</v>
       </c>
       <c r="W30">
-        <v>-39.667999999999999</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>-97.278000000000006</v>
+        <v>-21.501999999999999</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -3135,39 +3255,39 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>93.326999999999998</v>
+        <v>16.177</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43184</v>
+        <v>39530</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>88.826999999999998</v>
+        <v>14.119</v>
       </c>
       <c r="D31">
-        <v>785.37099999999998</v>
+        <v>339.012</v>
       </c>
       <c r="E31">
-        <v>174.416</v>
+        <v>69.332999999999998</v>
       </c>
       <c r="F31">
-        <v>217.654</v>
+        <v>88.034999999999997</v>
       </c>
       <c r="G31">
-        <v>536.423</v>
+        <v>217.96899999999999</v>
       </c>
       <c r="H31">
-        <v>798.3</v>
+        <v>452.87200000000001</v>
       </c>
       <c r="I31">
-        <v>88.978999999999999</v>
+        <v>57.338000000000001</v>
       </c>
       <c r="J31">
-        <v>3117.1930000000002</v>
+        <v>1704.692</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,40 +3296,40 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-8.0779999999999994</v>
+        <v>-18.074999999999999</v>
       </c>
       <c r="N31">
-        <v>384.76600000000002</v>
+        <v>159.96100000000001</v>
       </c>
       <c r="O31">
-        <v>3569.1640000000002</v>
+        <v>1903.423</v>
       </c>
       <c r="P31">
-        <v>3149.5349999999999</v>
+        <v>1705.011</v>
       </c>
       <c r="Q31">
-        <v>-34.237000000000002</v>
+        <v>-8.0190000000000001</v>
       </c>
       <c r="R31">
-        <v>43184</v>
+        <v>39530</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>-2770.864</v>
+        <v>-1450.5509999999999</v>
       </c>
       <c r="U31">
-        <v>44.609000000000002</v>
+        <v>3.3250000000000002</v>
       </c>
       <c r="V31">
-        <v>83.676000000000002</v>
+        <v>20.271999999999998</v>
       </c>
       <c r="W31">
-        <v>-7.9000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="X31">
-        <v>-107.822</v>
+        <v>-31.786999999999999</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -3218,39 +3338,39 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>88.826999999999998</v>
+        <v>14.119</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43268</v>
+        <v>39614</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>77.408000000000001</v>
+        <v>18.73</v>
       </c>
       <c r="D32">
-        <v>779.39599999999996</v>
+        <v>334.34699999999998</v>
       </c>
       <c r="E32">
-        <v>182.816</v>
+        <v>72.111000000000004</v>
       </c>
       <c r="F32">
-        <v>212.65100000000001</v>
+        <v>87.759</v>
       </c>
       <c r="G32">
-        <v>682.91399999999999</v>
+        <v>243.61199999999999</v>
       </c>
       <c r="H32">
-        <v>954.56500000000005</v>
+        <v>465.755</v>
       </c>
       <c r="I32">
-        <v>79.417000000000002</v>
+        <v>58.878</v>
       </c>
       <c r="J32">
-        <v>3436.9659999999999</v>
+        <v>1704.6379999999999</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,37 +3382,37 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>377.41500000000002</v>
+        <v>165.45099999999999</v>
       </c>
       <c r="O32">
-        <v>3883.77</v>
+        <v>1904.01</v>
       </c>
       <c r="P32">
-        <v>3472.5639999999999</v>
+        <v>1704.962</v>
       </c>
       <c r="Q32">
-        <v>114.976</v>
+        <v>33.716999999999999</v>
       </c>
       <c r="R32">
-        <v>43268</v>
+        <v>39614</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>-2929.2049999999999</v>
+        <v>-1438.2550000000001</v>
       </c>
       <c r="U32">
-        <v>157.78800000000001</v>
+        <v>37.042000000000002</v>
       </c>
       <c r="V32">
-        <v>71.036000000000001</v>
+        <v>23.343</v>
       </c>
       <c r="W32">
-        <v>-23.459</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <v>77.765000000000001</v>
+        <v>-8.6430000000000007</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3301,39 +3421,39 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>77.408000000000001</v>
+        <v>18.73</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43352</v>
+        <v>39698</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>84.094999999999999</v>
+        <v>10.096</v>
       </c>
       <c r="D33">
-        <v>785.96500000000003</v>
+        <v>323.58800000000002</v>
       </c>
       <c r="E33">
-        <v>170.244</v>
+        <v>69.436999999999998</v>
       </c>
       <c r="F33">
-        <v>212.80099999999999</v>
+        <v>78.72</v>
       </c>
       <c r="G33">
-        <v>605.649</v>
+        <v>225.12299999999999</v>
       </c>
       <c r="H33">
-        <v>912.11400000000003</v>
+        <v>440.846</v>
       </c>
       <c r="I33">
-        <v>87.509</v>
+        <v>53.588000000000001</v>
       </c>
       <c r="J33">
-        <v>3437.6320000000001</v>
+        <v>1704.557</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,37 +3465,37 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>376.43099999999998</v>
+        <v>140.73500000000001</v>
       </c>
       <c r="O33">
-        <v>3885.8719999999998</v>
+        <v>1878.232</v>
       </c>
       <c r="P33">
-        <v>3473.4789999999998</v>
+        <v>1704.8879999999999</v>
       </c>
       <c r="Q33">
-        <v>-55.884</v>
+        <v>-16.916</v>
       </c>
       <c r="R33">
-        <v>43352</v>
+        <v>39698</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>-2973.7579999999998</v>
+        <v>-1437.386</v>
       </c>
       <c r="U33">
-        <v>84.6</v>
+        <v>20.126000000000001</v>
       </c>
       <c r="V33">
-        <v>107.807</v>
+        <v>-4.702</v>
       </c>
       <c r="W33">
-        <v>-23.181999999999999</v>
+        <v>0</v>
       </c>
       <c r="X33">
-        <v>-142.00899999999999</v>
+        <v>-11.634</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -3384,39 +3504,39 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>84.094999999999999</v>
+        <v>10.096</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43464</v>
+        <v>39810</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>111.642</v>
+        <v>11.026</v>
       </c>
       <c r="D34">
-        <v>1082.135</v>
+        <v>428.166</v>
       </c>
       <c r="E34">
-        <v>190.09100000000001</v>
+        <v>69.39</v>
       </c>
       <c r="F34">
-        <v>301.04700000000003</v>
+        <v>108.745</v>
       </c>
       <c r="G34">
-        <v>566.95100000000002</v>
+        <v>254.251</v>
       </c>
       <c r="H34">
-        <v>907.38499999999999</v>
+        <v>463.79399999999998</v>
       </c>
       <c r="I34">
-        <v>92.546000000000006</v>
+        <v>56.905999999999999</v>
       </c>
       <c r="J34">
-        <v>3479.328</v>
+        <v>1704.444</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,78 +3548,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>379.74299999999999</v>
+        <v>149.554</v>
       </c>
       <c r="O34">
-        <v>3947.306</v>
+        <v>1888.4169999999999</v>
       </c>
       <c r="P34">
-        <v>3531.5839999999998</v>
+        <v>1704.7840000000001</v>
       </c>
       <c r="Q34">
-        <v>-42.281999999999996</v>
+        <v>25.245999999999999</v>
       </c>
       <c r="R34">
-        <v>43464</v>
+        <v>39810</v>
       </c>
       <c r="S34">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="T34">
-        <v>-3039.9209999999998</v>
+        <v>-1424.623</v>
       </c>
       <c r="U34">
-        <v>25.437999999999999</v>
+        <v>45.372</v>
       </c>
       <c r="V34">
-        <v>131.65199999999999</v>
+        <v>36.344000000000001</v>
       </c>
       <c r="W34">
-        <v>-45.445999999999998</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>-150.73699999999999</v>
+        <v>-1.4670000000000001</v>
       </c>
       <c r="Y34">
-        <v>16.363</v>
+        <v>0</v>
       </c>
       <c r="Z34">
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>111.642</v>
+        <v>11.026</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43548</v>
+        <v>39894</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>92.65</v>
+        <v>23.77</v>
       </c>
       <c r="D35">
-        <v>835.96299999999997</v>
+        <v>321.82799999999997</v>
       </c>
       <c r="E35">
-        <v>194.06399999999999</v>
+        <v>66.460999999999999</v>
       </c>
       <c r="F35">
-        <v>233.16800000000001</v>
+        <v>88.816999999999993</v>
       </c>
       <c r="G35">
-        <v>590.54300000000001</v>
+        <v>277.15300000000002</v>
       </c>
       <c r="H35">
-        <v>1148.2750000000001</v>
+        <v>473.42899999999997</v>
       </c>
       <c r="I35">
-        <v>84.888000000000005</v>
+        <v>46.58</v>
       </c>
       <c r="J35">
-        <v>3431.6170000000002</v>
+        <v>1657.45</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3508,81 +3628,81 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-48.968000000000004</v>
+        <v>-25.164000000000001</v>
       </c>
       <c r="N35">
-        <v>412.01299999999998</v>
+        <v>177.59399999999999</v>
       </c>
       <c r="O35">
-        <v>4123.4399999999996</v>
+        <v>1870.133</v>
       </c>
       <c r="P35">
-        <v>3713.989</v>
+        <v>1682.797</v>
       </c>
       <c r="Q35">
-        <v>30.03</v>
+        <v>22.478999999999999</v>
       </c>
       <c r="R35">
-        <v>43548</v>
+        <v>39894</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>-2975.165</v>
+        <v>-1396.704</v>
       </c>
       <c r="U35">
-        <v>83.114000000000004</v>
+        <v>67.850999999999999</v>
       </c>
       <c r="V35">
-        <v>96.998000000000005</v>
+        <v>12.271000000000001</v>
       </c>
       <c r="W35">
-        <v>-0.09</v>
+        <v>0</v>
       </c>
       <c r="X35">
-        <v>-55.131999999999998</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="Y35">
-        <v>214.71</v>
+        <v>0</v>
       </c>
       <c r="Z35">
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>92.65</v>
+        <v>23.77</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43632</v>
+        <v>39978</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>92.358999999999995</v>
+        <v>14.526999999999999</v>
       </c>
       <c r="D36">
-        <v>811.64700000000005</v>
+        <v>316.63200000000001</v>
       </c>
       <c r="E36">
-        <v>182.904</v>
+        <v>64.855999999999995</v>
       </c>
       <c r="F36">
-        <v>228.17099999999999</v>
+        <v>85.959000000000003</v>
       </c>
       <c r="G36">
-        <v>643.447</v>
+        <v>271.91000000000003</v>
       </c>
       <c r="H36">
-        <v>1177.1669999999999</v>
+        <v>461.97300000000001</v>
       </c>
       <c r="I36">
-        <v>82.456000000000003</v>
+        <v>39.978999999999999</v>
       </c>
       <c r="J36">
-        <v>3398.9009999999998</v>
+        <v>1637.3920000000001</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>412.90600000000001</v>
+        <v>158.892</v>
       </c>
       <c r="O36">
-        <v>4081.453</v>
+        <v>1834.6489999999999</v>
       </c>
       <c r="P36">
-        <v>3669.3679999999999</v>
+        <v>1657.7439999999999</v>
       </c>
       <c r="Q36">
-        <v>54.811</v>
+        <v>-6.1559999999999997</v>
       </c>
       <c r="R36">
-        <v>43632</v>
+        <v>39978</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>-2904.2860000000001</v>
+        <v>-1372.6759999999999</v>
       </c>
       <c r="U36">
-        <v>108.259</v>
+        <v>61.695</v>
       </c>
       <c r="V36">
-        <v>104.55500000000001</v>
+        <v>16.867000000000001</v>
       </c>
       <c r="W36">
-        <v>-26.59</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>-59.164000000000001</v>
+        <v>-10.362</v>
       </c>
       <c r="Y36">
-        <v>204.392</v>
+        <v>0</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>92.358999999999995</v>
+        <v>14.526999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43716</v>
+        <v>40062</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>86.373000000000005</v>
+        <v>17.829000000000001</v>
       </c>
       <c r="D37">
-        <v>820.81200000000001</v>
+        <v>302.71499999999997</v>
       </c>
       <c r="E37">
-        <v>185.40299999999999</v>
+        <v>64.87</v>
       </c>
       <c r="F37">
-        <v>226.75700000000001</v>
+        <v>83.150999999999996</v>
       </c>
       <c r="G37">
-        <v>605.33900000000006</v>
+        <v>263.67599999999999</v>
       </c>
       <c r="H37">
-        <v>1160.2719999999999</v>
+        <v>443.74400000000003</v>
       </c>
       <c r="I37">
-        <v>95.656999999999996</v>
+        <v>45.750999999999998</v>
       </c>
       <c r="J37">
-        <v>3391.1790000000001</v>
+        <v>1599.61</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>421.245</v>
+        <v>156.995</v>
       </c>
       <c r="O37">
-        <v>4095.9209999999998</v>
+        <v>1793.864</v>
       </c>
       <c r="P37">
-        <v>3677.3670000000002</v>
+        <v>1620.9</v>
       </c>
       <c r="Q37">
-        <v>-9.548</v>
+        <v>-12.965999999999999</v>
       </c>
       <c r="R37">
-        <v>43716</v>
+        <v>40062</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>-2935.6489999999999</v>
+        <v>-1350.12</v>
       </c>
       <c r="U37">
-        <v>66.706000000000003</v>
+        <v>48.728999999999999</v>
       </c>
       <c r="V37">
-        <v>123.04300000000001</v>
+        <v>25.673999999999999</v>
       </c>
       <c r="W37">
-        <v>-26.917999999999999</v>
+        <v>0</v>
       </c>
       <c r="X37">
-        <v>-132.00899999999999</v>
+        <v>-21.78</v>
       </c>
       <c r="Y37">
-        <v>218.05</v>
+        <v>0</v>
       </c>
       <c r="Z37">
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>86.373000000000005</v>
+        <v>17.829000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43828</v>
+        <v>40181</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>129.327</v>
+        <v>23.617999999999999</v>
       </c>
       <c r="D38">
-        <v>1150.3520000000001</v>
+        <v>462.88200000000001</v>
       </c>
       <c r="E38">
-        <v>210.26</v>
+        <v>76.272999999999996</v>
       </c>
       <c r="F38">
-        <v>323.60399999999998</v>
+        <v>129.04900000000001</v>
       </c>
       <c r="G38">
-        <v>787.61699999999996</v>
+        <v>278.66800000000001</v>
       </c>
       <c r="H38">
-        <v>1382.0920000000001</v>
+        <v>453.76100000000002</v>
       </c>
       <c r="I38">
-        <v>111.101</v>
+        <v>64.12</v>
       </c>
       <c r="J38">
-        <v>4052.7919999999999</v>
+        <v>1522.463</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>453.83100000000002</v>
+        <v>219.423</v>
       </c>
       <c r="O38">
-        <v>4797.8509999999997</v>
+        <v>1774.7550000000001</v>
       </c>
       <c r="P38">
-        <v>4350.4979999999996</v>
+        <v>1572.8330000000001</v>
       </c>
       <c r="Q38">
-        <v>171.21199999999999</v>
+        <v>-6.3369999999999997</v>
       </c>
       <c r="R38">
-        <v>43828</v>
+        <v>40181</v>
       </c>
       <c r="S38">
-        <v>13100</v>
+        <v>10200</v>
       </c>
       <c r="T38">
-        <v>-3415.759</v>
+        <v>-1320.9939999999999</v>
       </c>
       <c r="U38">
-        <v>190.61500000000001</v>
+        <v>42.392000000000003</v>
       </c>
       <c r="V38">
-        <v>172.35400000000001</v>
+        <v>46.462000000000003</v>
       </c>
       <c r="W38">
-        <v>-52.116999999999997</v>
+        <v>0</v>
       </c>
       <c r="X38">
-        <v>23.513000000000002</v>
+        <v>-39.130000000000003</v>
       </c>
       <c r="Y38">
-        <v>220.994</v>
+        <v>0</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>129.327</v>
+        <v>23.617999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43912</v>
+        <v>40265</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>121.602</v>
+        <v>24.518999999999998</v>
       </c>
       <c r="D39">
-        <v>873.10199999999998</v>
+        <v>381.13099999999997</v>
       </c>
       <c r="E39">
-        <v>219.19900000000001</v>
+        <v>75.046000000000006</v>
       </c>
       <c r="F39">
-        <v>244.32300000000001</v>
+        <v>107.994</v>
       </c>
       <c r="G39">
-        <v>794.37400000000002</v>
+        <v>260.10399999999998</v>
       </c>
       <c r="H39">
-        <v>1389.876</v>
+        <v>427.62</v>
       </c>
       <c r="I39">
-        <v>94.501999999999995</v>
+        <v>55.067</v>
       </c>
       <c r="J39">
-        <v>4043.5819999999999</v>
+        <v>1515.0170000000001</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3840,81 +3960,81 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-10.849</v>
+        <v>-54.024000000000001</v>
       </c>
       <c r="N39">
-        <v>452.16899999999998</v>
+        <v>167.321</v>
       </c>
       <c r="O39">
-        <v>4782.0659999999998</v>
+        <v>1717.5719999999999</v>
       </c>
       <c r="P39">
-        <v>4340.8059999999996</v>
+        <v>1515.529</v>
       </c>
       <c r="Q39">
-        <v>-5.5540000000000003</v>
+        <v>-14.401999999999999</v>
       </c>
       <c r="R39">
-        <v>43912</v>
+        <v>40265</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>-3392.19</v>
+        <v>-1289.952</v>
       </c>
       <c r="U39">
-        <v>200.80099999999999</v>
+        <v>27.99</v>
       </c>
       <c r="V39">
-        <v>95.358000000000004</v>
+        <v>32.378999999999998</v>
       </c>
       <c r="W39">
-        <v>-0.08</v>
+        <v>0</v>
       </c>
       <c r="X39">
-        <v>-82.058000000000007</v>
+        <v>-48.207999999999998</v>
       </c>
       <c r="Y39">
-        <v>216.92</v>
+        <v>0</v>
       </c>
       <c r="Z39">
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>121.602</v>
+        <v>24.518999999999998</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>43996</v>
+        <v>40349</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>118.66800000000001</v>
+        <v>22.625</v>
       </c>
       <c r="D40">
-        <v>920.02300000000002</v>
+        <v>362.40499999999997</v>
       </c>
       <c r="E40">
-        <v>232.114</v>
+        <v>76.564999999999998</v>
       </c>
       <c r="F40">
-        <v>251.65100000000001</v>
+        <v>100.336</v>
       </c>
       <c r="G40">
-        <v>927.10900000000004</v>
+        <v>254.45099999999999</v>
       </c>
       <c r="H40">
-        <v>1581.6880000000001</v>
+        <v>418.577</v>
       </c>
       <c r="I40">
-        <v>102.896</v>
+        <v>56.024999999999999</v>
       </c>
       <c r="J40">
-        <v>4092.3670000000002</v>
+        <v>1484.5740000000001</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>459.86799999999999</v>
+        <v>166.47399999999999</v>
       </c>
       <c r="O40">
-        <v>4864.5940000000001</v>
+        <v>1681.663</v>
       </c>
       <c r="P40">
-        <v>4407.326</v>
+        <v>1495.095</v>
       </c>
       <c r="Q40">
-        <v>91.995999999999995</v>
+        <v>0.99</v>
       </c>
       <c r="R40">
-        <v>43996</v>
+        <v>40349</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>-3282.9059999999999</v>
+        <v>-1263.086</v>
       </c>
       <c r="U40">
-        <v>247.952</v>
+        <v>28.98</v>
       </c>
       <c r="V40">
-        <v>116.47</v>
+        <v>17.260999999999999</v>
       </c>
       <c r="W40">
-        <v>-30.186</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>31.135999999999999</v>
+        <v>-17.416</v>
       </c>
       <c r="Y40">
-        <v>235.077</v>
+        <v>0</v>
       </c>
       <c r="Z40">
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>118.66800000000001</v>
+        <v>22.625</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44080</v>
+        <v>40433</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>99.129000000000005</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="D41">
-        <v>967.71900000000005</v>
+        <v>347.38799999999998</v>
       </c>
       <c r="E41">
-        <v>229.40299999999999</v>
+        <v>75.835999999999999</v>
       </c>
       <c r="F41">
-        <v>253.833</v>
+        <v>94.153000000000006</v>
       </c>
       <c r="G41">
-        <v>956.52099999999996</v>
+        <v>263.41399999999999</v>
       </c>
       <c r="H41">
-        <v>1620.9480000000001</v>
+        <v>425.68</v>
       </c>
       <c r="I41">
-        <v>88.188000000000002</v>
+        <v>52.701000000000001</v>
       </c>
       <c r="J41">
-        <v>4025.1889999999999</v>
+        <v>1474.9359999999999</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>488.52499999999998</v>
+        <v>159.28899999999999</v>
       </c>
       <c r="O41">
-        <v>4832.4790000000003</v>
+        <v>1667.547</v>
       </c>
       <c r="P41">
-        <v>4344.326</v>
+        <v>1475.694</v>
       </c>
       <c r="Q41">
-        <v>39.546999999999997</v>
+        <v>10.215</v>
       </c>
       <c r="R41">
-        <v>44080</v>
+        <v>40433</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>-3211.5309999999999</v>
+        <v>-1241.867</v>
       </c>
       <c r="U41">
-        <v>330.71899999999999</v>
+        <v>39.195</v>
       </c>
       <c r="V41">
-        <v>158.571</v>
+        <v>32.625999999999998</v>
       </c>
       <c r="W41">
-        <v>-30.827000000000002</v>
+        <v>0</v>
       </c>
       <c r="X41">
-        <v>-102.66200000000001</v>
+        <v>-17.888000000000002</v>
       </c>
       <c r="Y41">
-        <v>238.96700000000001</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>99.129000000000005</v>
+        <v>16.600000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44199</v>
+        <v>40545</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>24.172999999999998</v>
+      </c>
+      <c r="D42">
+        <v>479.971</v>
+      </c>
+      <c r="E42">
+        <v>80.41</v>
+      </c>
+      <c r="F42">
+        <v>136.108</v>
+      </c>
+      <c r="G42">
+        <v>305.03800000000001</v>
+      </c>
+      <c r="H42">
+        <v>460.83699999999999</v>
+      </c>
+      <c r="I42">
+        <v>56.601999999999997</v>
+      </c>
+      <c r="J42">
+        <v>1451.3209999999999</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>186.126</v>
+      </c>
+      <c r="O42">
+        <v>1671.4880000000001</v>
+      </c>
+      <c r="P42">
+        <v>1452.1559999999999</v>
+      </c>
+      <c r="Q42">
+        <v>8.75</v>
+      </c>
+      <c r="R42">
+        <v>40545</v>
+      </c>
+      <c r="S42">
+        <v>10900</v>
+      </c>
+      <c r="T42">
+        <v>-1210.6510000000001</v>
+      </c>
+      <c r="U42">
+        <v>47.945</v>
+      </c>
+      <c r="V42">
+        <v>46.058999999999997</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>-20.754999999999999</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>24.172999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40629</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>27.111000000000001</v>
+      </c>
+      <c r="D43">
+        <v>389.18599999999998</v>
+      </c>
+      <c r="E43">
+        <v>83.847999999999999</v>
+      </c>
+      <c r="F43">
+        <v>111.60599999999999</v>
+      </c>
+      <c r="G43">
+        <v>339.03899999999999</v>
+      </c>
+      <c r="H43">
+        <v>487.42899999999997</v>
+      </c>
+      <c r="I43">
+        <v>63.305</v>
+      </c>
+      <c r="J43">
+        <v>1451.1030000000001</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-0.22600000000000001</v>
+      </c>
+      <c r="N43">
+        <v>171.149</v>
+      </c>
+      <c r="O43">
+        <v>1655.175</v>
+      </c>
+      <c r="P43">
+        <v>1451.932</v>
+      </c>
+      <c r="Q43">
+        <v>44.639000000000003</v>
+      </c>
+      <c r="R43">
+        <v>40629</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>-1167.7460000000001</v>
+      </c>
+      <c r="U43">
+        <v>92.584000000000003</v>
+      </c>
+      <c r="V43">
+        <v>27.809000000000001</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>16.649999999999999</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>27.111000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40713</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>25.248000000000001</v>
+      </c>
+      <c r="D44">
+        <v>384.93299999999999</v>
+      </c>
+      <c r="E44">
+        <v>84.325999999999993</v>
+      </c>
+      <c r="F44">
+        <v>110.694</v>
+      </c>
+      <c r="G44">
+        <v>340.23099999999999</v>
+      </c>
+      <c r="H44">
+        <v>486.98899999999998</v>
+      </c>
+      <c r="I44">
+        <v>58.688000000000002</v>
+      </c>
+      <c r="J44">
+        <v>1450.9190000000001</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>172.352</v>
+      </c>
+      <c r="O44">
+        <v>1658.354</v>
+      </c>
+      <c r="P44">
+        <v>1451.7429999999999</v>
+      </c>
+      <c r="Q44">
+        <v>-13.945</v>
+      </c>
+      <c r="R44">
+        <v>40713</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>-1171.365</v>
+      </c>
+      <c r="U44">
+        <v>78.638999999999996</v>
+      </c>
+      <c r="V44">
+        <v>16.603000000000002</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>-31.003</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>25.248000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40797</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>22.091000000000001</v>
+      </c>
+      <c r="D45">
+        <v>376.32600000000002</v>
+      </c>
+      <c r="E45">
+        <v>81.146000000000001</v>
+      </c>
+      <c r="F45">
+        <v>103.35899999999999</v>
+      </c>
+      <c r="G45">
+        <v>288.75599999999997</v>
+      </c>
+      <c r="H45">
+        <v>438.22500000000002</v>
+      </c>
+      <c r="I45">
+        <v>54.216999999999999</v>
+      </c>
+      <c r="J45">
+        <v>1450.6679999999999</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>170.57599999999999</v>
+      </c>
+      <c r="O45">
+        <v>1659.181</v>
+      </c>
+      <c r="P45">
+        <v>1451.5619999999999</v>
+      </c>
+      <c r="Q45">
+        <v>-46.558999999999997</v>
+      </c>
+      <c r="R45">
+        <v>40797</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>-1220.9559999999999</v>
+      </c>
+      <c r="U45">
+        <v>32.08</v>
+      </c>
+      <c r="V45">
+        <v>40.694000000000003</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>-80.760999999999996</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>22.091000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40909</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>30.911000000000001</v>
+      </c>
+      <c r="D46">
+        <v>501.74799999999999</v>
+      </c>
+      <c r="E46">
+        <v>87.2</v>
+      </c>
+      <c r="F46">
+        <v>144.858</v>
+      </c>
+      <c r="G46">
+        <v>326.84300000000002</v>
+      </c>
+      <c r="H46">
+        <v>480.54300000000001</v>
+      </c>
+      <c r="I46">
+        <v>69.713999999999999</v>
+      </c>
+      <c r="J46">
+        <v>1450.3689999999999</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>197.17500000000001</v>
+      </c>
+      <c r="O46">
+        <v>1690.2819999999999</v>
+      </c>
+      <c r="P46">
+        <v>1451.2729999999999</v>
+      </c>
+      <c r="Q46">
+        <v>18.212</v>
+      </c>
+      <c r="R46">
+        <v>40909</v>
+      </c>
+      <c r="S46">
+        <v>10000</v>
+      </c>
+      <c r="T46">
+        <v>-1209.739</v>
+      </c>
+      <c r="U46">
+        <v>50.292000000000002</v>
+      </c>
+      <c r="V46">
+        <v>67.966999999999999</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>-28.370999999999999</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>30.911000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40993</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>20.742000000000001</v>
+      </c>
+      <c r="D47">
+        <v>384.58699999999999</v>
+      </c>
+      <c r="E47">
+        <v>80.066999999999993</v>
+      </c>
+      <c r="F47">
+        <v>114.649</v>
+      </c>
+      <c r="G47">
+        <v>427.88799999999998</v>
+      </c>
+      <c r="H47">
+        <v>601.27700000000004</v>
+      </c>
+      <c r="I47">
+        <v>62.033999999999999</v>
+      </c>
+      <c r="J47">
+        <v>1554.6510000000001</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-1447.127</v>
+      </c>
+      <c r="N47">
+        <v>369.08699999999999</v>
+      </c>
+      <c r="O47">
+        <v>1967.0039999999999</v>
+      </c>
+      <c r="P47">
+        <v>1579.162</v>
+      </c>
+      <c r="Q47">
+        <v>164.43799999999999</v>
+      </c>
+      <c r="R47">
+        <v>40993</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>-1365.7270000000001</v>
+      </c>
+      <c r="U47">
+        <v>214.73</v>
+      </c>
+      <c r="V47">
+        <v>20.216999999999999</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>102.55200000000001</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>20.742000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41077</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>28.094999999999999</v>
+      </c>
+      <c r="D48">
+        <v>376.12400000000002</v>
+      </c>
+      <c r="E48">
+        <v>85.521000000000001</v>
+      </c>
+      <c r="F48">
+        <v>114.607</v>
+      </c>
+      <c r="G48">
+        <v>254.50200000000001</v>
+      </c>
+      <c r="H48">
+        <v>424.61900000000003</v>
+      </c>
+      <c r="I48">
+        <v>59.222999999999999</v>
+      </c>
+      <c r="J48">
+        <v>1548.57</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>201.596</v>
+      </c>
+      <c r="O48">
+        <v>1793.729</v>
+      </c>
+      <c r="P48">
+        <v>1573.1079999999999</v>
+      </c>
+      <c r="Q48">
+        <v>-203.98</v>
+      </c>
+      <c r="R48">
+        <v>41077</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>-1369.11</v>
+      </c>
+      <c r="U48">
+        <v>10.75</v>
+      </c>
+      <c r="V48">
+        <v>37.893000000000001</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>-226.715</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>28.094999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41161</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>25.977</v>
+      </c>
+      <c r="D49">
+        <v>378.077</v>
+      </c>
+      <c r="E49">
+        <v>86.762</v>
+      </c>
+      <c r="F49">
+        <v>111.407</v>
+      </c>
+      <c r="G49">
+        <v>272.12700000000001</v>
+      </c>
+      <c r="H49">
+        <v>440.952</v>
+      </c>
+      <c r="I49">
+        <v>61.875</v>
+      </c>
+      <c r="J49">
+        <v>1542.5219999999999</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>198.15100000000001</v>
+      </c>
+      <c r="O49">
+        <v>1786.4829999999999</v>
+      </c>
+      <c r="P49">
+        <v>1566.9659999999999</v>
+      </c>
+      <c r="Q49">
+        <v>23.8</v>
+      </c>
+      <c r="R49">
+        <v>41161</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>-1345.5309999999999</v>
+      </c>
+      <c r="U49">
+        <v>34.549999999999997</v>
+      </c>
+      <c r="V49">
+        <v>43.142000000000003</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>-13.141</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>25.975999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41273</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>37.578000000000003</v>
+      </c>
+      <c r="D50">
+        <v>539.65</v>
+      </c>
+      <c r="E50">
+        <v>94.102999999999994</v>
+      </c>
+      <c r="F50">
+        <v>160.67500000000001</v>
+      </c>
+      <c r="G50">
+        <v>306.267</v>
+      </c>
+      <c r="H50">
+        <v>478.197</v>
+      </c>
+      <c r="I50">
+        <v>77.414000000000001</v>
+      </c>
+      <c r="J50">
+        <v>1536.443</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>229.49799999999999</v>
+      </c>
+      <c r="O50">
+        <v>1813.72</v>
+      </c>
+      <c r="P50">
+        <v>1560.7919999999999</v>
+      </c>
+      <c r="Q50">
+        <v>20.263000000000002</v>
+      </c>
+      <c r="R50">
+        <v>41273</v>
+      </c>
+      <c r="S50">
+        <v>10000</v>
+      </c>
+      <c r="T50">
+        <v>-1335.5229999999999</v>
+      </c>
+      <c r="U50">
+        <v>54.813000000000002</v>
+      </c>
+      <c r="V50">
+        <v>75.067999999999998</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>-40.145000000000003</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>37.578000000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41357</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>34.42</v>
+      </c>
+      <c r="D51">
+        <v>417.61700000000002</v>
+      </c>
+      <c r="E51">
+        <v>90.156000000000006</v>
+      </c>
+      <c r="F51">
+        <v>129.80600000000001</v>
+      </c>
+      <c r="G51">
+        <v>308.55700000000002</v>
+      </c>
+      <c r="H51">
+        <v>476.55500000000001</v>
+      </c>
+      <c r="I51">
+        <v>69.087000000000003</v>
+      </c>
+      <c r="J51">
+        <v>1530.4110000000001</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-6.17</v>
+      </c>
+      <c r="N51">
+        <v>223.58500000000001</v>
+      </c>
+      <c r="O51">
+        <v>1799.9269999999999</v>
+      </c>
+      <c r="P51">
+        <v>1554.6220000000001</v>
+      </c>
+      <c r="Q51">
+        <v>20.268000000000001</v>
+      </c>
+      <c r="R51">
+        <v>41357</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>-1323.3720000000001</v>
+      </c>
+      <c r="U51">
+        <v>75.081000000000003</v>
+      </c>
+      <c r="V51">
+        <v>47.649000000000001</v>
+      </c>
+      <c r="W51">
+        <v>-0.32700000000000001</v>
+      </c>
+      <c r="X51">
+        <v>-23.07</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>34.42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41441</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>33.270000000000003</v>
+      </c>
+      <c r="D52">
+        <v>414.00900000000001</v>
+      </c>
+      <c r="E52">
+        <v>93.986999999999995</v>
+      </c>
+      <c r="F52">
+        <v>125.98699999999999</v>
+      </c>
+      <c r="G52">
+        <v>302.536</v>
+      </c>
+      <c r="H52">
+        <v>468.79899999999998</v>
+      </c>
+      <c r="I52">
+        <v>63.875</v>
+      </c>
+      <c r="J52">
+        <v>1524.42</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>228.81200000000001</v>
+      </c>
+      <c r="O52">
+        <v>1797.59</v>
+      </c>
+      <c r="P52">
+        <v>1548.5730000000001</v>
+      </c>
+      <c r="Q52">
+        <v>-34.243000000000002</v>
+      </c>
+      <c r="R52">
+        <v>41441</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>-1328.7909999999999</v>
+      </c>
+      <c r="U52">
+        <v>40.838000000000001</v>
+      </c>
+      <c r="V52">
+        <v>19.190999999999999</v>
+      </c>
+      <c r="W52">
+        <v>-11.127000000000001</v>
+      </c>
+      <c r="X52">
+        <v>-49.723999999999997</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>33.270000000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41525</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>30.632000000000001</v>
+      </c>
+      <c r="D53">
+        <v>404.05</v>
+      </c>
+      <c r="E53">
+        <v>92.765000000000001</v>
+      </c>
+      <c r="F53">
+        <v>120.634</v>
+      </c>
+      <c r="G53">
+        <v>302.41000000000003</v>
+      </c>
+      <c r="H53">
+        <v>468.524</v>
+      </c>
+      <c r="I53">
+        <v>63.006</v>
+      </c>
+      <c r="J53">
+        <v>1518.383</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>225.476</v>
+      </c>
+      <c r="O53">
+        <v>1790.6990000000001</v>
+      </c>
+      <c r="P53">
+        <v>1542.5229999999999</v>
+      </c>
+      <c r="Q53">
+        <v>-8.7590000000000003</v>
+      </c>
+      <c r="R53">
+        <v>41525</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>-1322.175</v>
+      </c>
+      <c r="U53">
+        <v>32.079000000000001</v>
+      </c>
+      <c r="V53">
+        <v>37.734999999999999</v>
+      </c>
+      <c r="W53">
+        <v>-11.769</v>
+      </c>
+      <c r="X53">
+        <v>-35.648000000000003</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>30.632000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41637</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>44.662999999999997</v>
+      </c>
+      <c r="D54">
+        <v>566.54700000000003</v>
+      </c>
+      <c r="E54">
+        <v>105.779</v>
+      </c>
+      <c r="F54">
+        <v>171.047</v>
+      </c>
+      <c r="G54">
+        <v>351.54</v>
+      </c>
+      <c r="H54">
+        <v>525.255</v>
+      </c>
+      <c r="I54">
+        <v>83.408000000000001</v>
+      </c>
+      <c r="J54">
+        <v>1512.299</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>254.61099999999999</v>
+      </c>
+      <c r="O54">
+        <v>1815.4570000000001</v>
+      </c>
+      <c r="P54">
+        <v>1536.443</v>
+      </c>
+      <c r="Q54">
+        <v>-17.696000000000002</v>
+      </c>
+      <c r="R54">
+        <v>41637</v>
+      </c>
+      <c r="S54">
+        <v>10000</v>
+      </c>
+      <c r="T54">
+        <v>-1290.202</v>
+      </c>
+      <c r="U54">
+        <v>14.382999999999999</v>
+      </c>
+      <c r="V54">
+        <v>89.414000000000001</v>
+      </c>
+      <c r="W54">
+        <v>-11.018000000000001</v>
+      </c>
+      <c r="X54">
+        <v>-26.361999999999998</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>44.662999999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41721</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>40.473999999999997</v>
+      </c>
+      <c r="D55">
+        <v>453.85199999999998</v>
+      </c>
+      <c r="E55">
+        <v>103.881</v>
+      </c>
+      <c r="F55">
+        <v>137.042</v>
+      </c>
+      <c r="G55">
+        <v>353.88</v>
+      </c>
+      <c r="H55">
+        <v>524.31200000000001</v>
+      </c>
+      <c r="I55">
+        <v>73.183000000000007</v>
+      </c>
+      <c r="J55">
+        <v>1506.2560000000001</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-6.032</v>
+      </c>
+      <c r="N55">
+        <v>240.404</v>
+      </c>
+      <c r="O55">
+        <v>1793.268</v>
+      </c>
+      <c r="P55">
+        <v>1530.4110000000001</v>
+      </c>
+      <c r="Q55">
+        <v>23.992999999999999</v>
+      </c>
+      <c r="R55">
+        <v>41721</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>-1268.9559999999999</v>
+      </c>
+      <c r="U55">
+        <v>38.375999999999998</v>
+      </c>
+      <c r="V55">
+        <v>36.204000000000001</v>
+      </c>
+      <c r="W55">
+        <v>-11.053000000000001</v>
+      </c>
+      <c r="X55">
+        <v>-26.231999999999999</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>40.473999999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41805</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>38.462000000000003</v>
+      </c>
+      <c r="D56">
+        <v>450.46300000000002</v>
+      </c>
+      <c r="E56">
+        <v>105.97</v>
+      </c>
+      <c r="F56">
+        <v>134.64500000000001</v>
+      </c>
+      <c r="G56">
+        <v>320.98</v>
+      </c>
+      <c r="H56">
+        <v>495.67099999999999</v>
+      </c>
+      <c r="I56">
+        <v>73.183999999999997</v>
+      </c>
+      <c r="J56">
+        <v>1523.8820000000001</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>216.00700000000001</v>
+      </c>
+      <c r="O56">
+        <v>1785.3530000000001</v>
+      </c>
+      <c r="P56">
+        <v>1524.42</v>
+      </c>
+      <c r="Q56">
+        <v>-23.071999999999999</v>
+      </c>
+      <c r="R56">
+        <v>41805</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>-1289.682</v>
+      </c>
+      <c r="U56">
+        <v>15.304</v>
+      </c>
+      <c r="V56">
+        <v>24.585999999999999</v>
+      </c>
+      <c r="W56">
+        <v>-14.077</v>
+      </c>
+      <c r="X56">
+        <v>-69.322000000000003</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>38.462000000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41889</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>35.618000000000002</v>
+      </c>
+      <c r="D57">
+        <v>446.56799999999998</v>
+      </c>
+      <c r="E57">
+        <v>103.54</v>
+      </c>
+      <c r="F57">
+        <v>133.51400000000001</v>
+      </c>
+      <c r="G57">
+        <v>333.32400000000001</v>
+      </c>
+      <c r="H57">
+        <v>510.88299999999998</v>
+      </c>
+      <c r="I57">
+        <v>73.941999999999993</v>
+      </c>
+      <c r="J57">
+        <v>1523.74</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>220.386</v>
+      </c>
+      <c r="O57">
+        <v>1792.625</v>
+      </c>
+      <c r="P57">
+        <v>1524.289</v>
+      </c>
+      <c r="Q57">
+        <v>15.632</v>
+      </c>
+      <c r="R57">
+        <v>41889</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>-1281.742</v>
+      </c>
+      <c r="U57">
+        <v>30.936</v>
+      </c>
+      <c r="V57">
+        <v>58.094999999999999</v>
+      </c>
+      <c r="W57">
+        <v>-14.077999999999999</v>
+      </c>
+      <c r="X57">
+        <v>-32.109000000000002</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>35.618000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42001</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>48.033000000000001</v>
+      </c>
+      <c r="D58">
+        <v>642.95000000000005</v>
+      </c>
+      <c r="E58">
+        <v>118.395</v>
+      </c>
+      <c r="F58">
+        <v>189.565</v>
+      </c>
+      <c r="G58">
+        <v>428.36099999999999</v>
+      </c>
+      <c r="H58">
+        <v>596.33299999999997</v>
+      </c>
+      <c r="I58">
+        <v>86.552000000000007</v>
+      </c>
+      <c r="J58">
+        <v>1500.5989999999999</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>265.608</v>
+      </c>
+      <c r="O58">
+        <v>1815.798</v>
+      </c>
+      <c r="P58">
+        <v>1501.164</v>
+      </c>
+      <c r="Q58">
+        <v>-8.1000000000000003E-2</v>
+      </c>
+      <c r="R58">
+        <v>42001</v>
+      </c>
+      <c r="S58">
+        <v>11000</v>
+      </c>
+      <c r="T58">
+        <v>-1219.4649999999999</v>
+      </c>
+      <c r="U58">
+        <v>30.855</v>
+      </c>
+      <c r="V58">
+        <v>73.453999999999994</v>
+      </c>
+      <c r="W58">
+        <v>-13.635</v>
+      </c>
+      <c r="X58">
+        <v>8.7650000000000006</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>48.033000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42085</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>46.289000000000001</v>
+      </c>
+      <c r="D59">
+        <v>502.02699999999999</v>
+      </c>
+      <c r="E59">
+        <v>118.08499999999999</v>
+      </c>
+      <c r="F59">
+        <v>157.066</v>
+      </c>
+      <c r="G59">
+        <v>446.041</v>
+      </c>
+      <c r="H59">
+        <v>636.98099999999999</v>
+      </c>
+      <c r="I59">
+        <v>88.322999999999993</v>
+      </c>
+      <c r="J59">
+        <v>1527.202</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-0.10299999999999999</v>
+      </c>
+      <c r="N59">
+        <v>275.31299999999999</v>
+      </c>
+      <c r="O59">
+        <v>1850.559</v>
+      </c>
+      <c r="P59">
+        <v>1527.4359999999999</v>
+      </c>
+      <c r="Q59">
+        <v>44.136000000000003</v>
+      </c>
+      <c r="R59">
+        <v>42085</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>-1213.578</v>
+      </c>
+      <c r="U59">
+        <v>74.991</v>
+      </c>
+      <c r="V59">
+        <v>84.745000000000005</v>
+      </c>
+      <c r="W59">
+        <v>-13.965</v>
+      </c>
+      <c r="X59">
+        <v>-41.338999999999999</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>46.289000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42169</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>45.908999999999999</v>
+      </c>
+      <c r="D60">
+        <v>488.62200000000001</v>
+      </c>
+      <c r="E60">
+        <v>113.328</v>
+      </c>
+      <c r="F60">
+        <v>152.672</v>
+      </c>
+      <c r="G60">
+        <v>404.50099999999998</v>
+      </c>
+      <c r="H60">
+        <v>597.90099999999995</v>
+      </c>
+      <c r="I60">
+        <v>76.960999999999999</v>
+      </c>
+      <c r="J60">
+        <v>1527.1610000000001</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>269.21300000000002</v>
+      </c>
+      <c r="O60">
+        <v>1843.556</v>
+      </c>
+      <c r="P60">
+        <v>1527.3979999999999</v>
+      </c>
+      <c r="Q60">
+        <v>-49.1</v>
+      </c>
+      <c r="R60">
+        <v>42169</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>-1245.655</v>
+      </c>
+      <c r="U60">
+        <v>25.890999999999998</v>
+      </c>
+      <c r="V60">
+        <v>18.849</v>
+      </c>
+      <c r="W60">
+        <v>-17.074000000000002</v>
+      </c>
+      <c r="X60">
+        <v>-81.588999999999999</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>45.908999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42253</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>37.832000000000001</v>
+      </c>
+      <c r="D61">
+        <v>484.69600000000003</v>
+      </c>
+      <c r="E61">
+        <v>112.398</v>
+      </c>
+      <c r="F61">
+        <v>141.95400000000001</v>
+      </c>
+      <c r="G61">
+        <v>404.43200000000002</v>
+      </c>
+      <c r="H61">
+        <v>603.19600000000003</v>
+      </c>
+      <c r="I61">
+        <v>86.423000000000002</v>
+      </c>
+      <c r="J61">
+        <v>1527.664</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>279.291</v>
+      </c>
+      <c r="O61">
+        <v>1859.145</v>
+      </c>
+      <c r="P61">
+        <v>1527.92</v>
+      </c>
+      <c r="Q61">
+        <v>6.6150000000000002</v>
+      </c>
+      <c r="R61">
+        <v>42253</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>-1255.9490000000001</v>
+      </c>
+      <c r="U61">
+        <v>32.506</v>
+      </c>
+      <c r="V61">
+        <v>63.713999999999999</v>
+      </c>
+      <c r="W61">
+        <v>-17.102</v>
+      </c>
+      <c r="X61">
+        <v>-51.198999999999998</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>37.832000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42372</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>62.759</v>
+      </c>
+      <c r="D62">
+        <v>741.18299999999999</v>
+      </c>
+      <c r="E62">
+        <v>131.58199999999999</v>
+      </c>
+      <c r="F62">
+        <v>231.43899999999999</v>
+      </c>
+      <c r="G62">
+        <v>602.63699999999994</v>
+      </c>
+      <c r="H62">
+        <v>799.84500000000003</v>
+      </c>
+      <c r="I62">
+        <v>106.92700000000001</v>
+      </c>
+      <c r="J62">
+        <v>2181.46</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>375.983</v>
+      </c>
+      <c r="O62">
+        <v>2600.096</v>
+      </c>
+      <c r="P62">
+        <v>2240.7930000000001</v>
+      </c>
+      <c r="Q62">
+        <v>100.943</v>
+      </c>
+      <c r="R62">
+        <v>42372</v>
+      </c>
+      <c r="S62">
+        <v>11900</v>
+      </c>
+      <c r="T62">
+        <v>-1800.251</v>
+      </c>
+      <c r="U62">
+        <v>133.44900000000001</v>
+      </c>
+      <c r="V62">
+        <v>124.47799999999999</v>
+      </c>
+      <c r="W62">
+        <v>-32.188000000000002</v>
+      </c>
+      <c r="X62">
+        <v>93.191000000000003</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>62.759</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42456</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>45.451000000000001</v>
+      </c>
+      <c r="D63">
+        <v>539.17499999999995</v>
+      </c>
+      <c r="E63">
+        <v>130.52000000000001</v>
+      </c>
+      <c r="F63">
+        <v>167.21600000000001</v>
+      </c>
+      <c r="G63">
+        <v>626.48599999999999</v>
+      </c>
+      <c r="H63">
+        <v>820.75900000000001</v>
+      </c>
+      <c r="I63">
+        <v>86.137</v>
+      </c>
+      <c r="J63">
+        <v>2173.4029999999998</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-27.459</v>
+      </c>
+      <c r="N63">
+        <v>333.726</v>
+      </c>
+      <c r="O63">
+        <v>2551.038</v>
+      </c>
+      <c r="P63">
+        <v>2214.9960000000001</v>
+      </c>
+      <c r="Q63">
+        <v>44.802999999999997</v>
+      </c>
+      <c r="R63">
+        <v>42456</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>-1730.279</v>
+      </c>
+      <c r="U63">
+        <v>178.25200000000001</v>
+      </c>
+      <c r="V63">
+        <v>17.148</v>
+      </c>
+      <c r="W63">
+        <v>-0.16400000000000001</v>
+      </c>
+      <c r="X63">
+        <v>10.419</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>45.451000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42540</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>49.261000000000003</v>
+      </c>
+      <c r="D64">
+        <v>547.34100000000001</v>
+      </c>
+      <c r="E64">
+        <v>132.53299999999999</v>
+      </c>
+      <c r="F64">
+        <v>171.83799999999999</v>
+      </c>
+      <c r="G64">
+        <v>450.44900000000001</v>
+      </c>
+      <c r="H64">
+        <v>652.27800000000002</v>
+      </c>
+      <c r="I64">
+        <v>84.902000000000001</v>
+      </c>
+      <c r="J64">
+        <v>2165.1770000000001</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>356.72699999999998</v>
+      </c>
+      <c r="O64">
+        <v>2567.0320000000002</v>
+      </c>
+      <c r="P64">
+        <v>2214.047</v>
+      </c>
+      <c r="Q64">
+        <v>-155.947</v>
+      </c>
+      <c r="R64">
+        <v>42540</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>-1914.7539999999999</v>
+      </c>
+      <c r="U64">
+        <v>22.305</v>
+      </c>
+      <c r="V64">
+        <v>52.305</v>
+      </c>
+      <c r="W64">
+        <v>-18.934999999999999</v>
+      </c>
+      <c r="X64">
+        <v>-240.87100000000001</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>49.261000000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42624</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>47.232999999999997</v>
+      </c>
+      <c r="D65">
+        <v>566.67700000000002</v>
+      </c>
+      <c r="E65">
+        <v>138.107</v>
+      </c>
+      <c r="F65">
+        <v>173.90299999999999</v>
+      </c>
+      <c r="G65">
+        <v>472.59</v>
+      </c>
+      <c r="H65">
+        <v>676.60699999999997</v>
+      </c>
+      <c r="I65">
+        <v>103.994</v>
+      </c>
+      <c r="J65">
+        <v>2156.884</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>410.517</v>
+      </c>
+      <c r="O65">
+        <v>2612.7530000000002</v>
+      </c>
+      <c r="P65">
+        <v>2230.761</v>
+      </c>
+      <c r="Q65">
+        <v>7.6760000000000002</v>
+      </c>
+      <c r="R65">
+        <v>42624</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>-1936.146</v>
+      </c>
+      <c r="U65">
+        <v>29.981000000000002</v>
+      </c>
+      <c r="V65">
+        <v>93.164000000000001</v>
+      </c>
+      <c r="W65">
+        <v>-18.449000000000002</v>
+      </c>
+      <c r="X65">
+        <v>-57.347999999999999</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>47.231999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42736</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>72.733000000000004</v>
+      </c>
+      <c r="D66">
+        <v>819.43499999999995</v>
+      </c>
+      <c r="E66">
+        <v>150.369</v>
+      </c>
+      <c r="F66">
+        <v>254.73400000000001</v>
+      </c>
+      <c r="G66">
+        <v>495.87299999999999</v>
+      </c>
+      <c r="H66">
+        <v>716.29499999999996</v>
+      </c>
+      <c r="I66">
+        <v>111.51</v>
+      </c>
+      <c r="J66">
+        <v>2148.9899999999998</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>403.69799999999998</v>
+      </c>
+      <c r="O66">
+        <v>2599.4380000000001</v>
+      </c>
+      <c r="P66">
+        <v>2187.877</v>
+      </c>
+      <c r="Q66">
+        <v>12.834</v>
+      </c>
+      <c r="R66">
+        <v>42736</v>
+      </c>
+      <c r="S66">
+        <v>14100</v>
+      </c>
+      <c r="T66">
+        <v>-1883.143</v>
+      </c>
+      <c r="U66">
+        <v>42.814999999999998</v>
+      </c>
+      <c r="V66">
+        <v>124.65600000000001</v>
+      </c>
+      <c r="W66">
+        <v>-36.377000000000002</v>
+      </c>
+      <c r="X66">
+        <v>-87.992000000000004</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>72.733000000000004</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42820</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>62.469000000000001</v>
+      </c>
+      <c r="D67">
+        <v>624.21699999999998</v>
+      </c>
+      <c r="E67">
+        <v>150.93100000000001</v>
+      </c>
+      <c r="F67">
+        <v>193.816</v>
+      </c>
+      <c r="G67">
+        <v>528.63599999999997</v>
+      </c>
+      <c r="H67">
+        <v>742.46199999999999</v>
+      </c>
+      <c r="I67">
+        <v>110.245</v>
+      </c>
+      <c r="J67">
+        <v>2179.2579999999998</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-9.718</v>
+      </c>
+      <c r="N67">
+        <v>369.44</v>
+      </c>
+      <c r="O67">
+        <v>2596.1529999999998</v>
+      </c>
+      <c r="P67">
+        <v>2179.558</v>
+      </c>
+      <c r="Q67">
+        <v>39.384</v>
+      </c>
+      <c r="R67">
+        <v>42820</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>-1853.691</v>
+      </c>
+      <c r="U67">
+        <v>52.094000000000001</v>
+      </c>
+      <c r="V67">
+        <v>76.628</v>
+      </c>
+      <c r="W67">
+        <v>-0.253</v>
+      </c>
+      <c r="X67">
+        <v>-26.155000000000001</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>62.469000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42904</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>65.741</v>
+      </c>
+      <c r="D68">
+        <v>628.61099999999999</v>
+      </c>
+      <c r="E68">
+        <v>151.64099999999999</v>
+      </c>
+      <c r="F68">
+        <v>192.845</v>
+      </c>
+      <c r="G68">
+        <v>560.90300000000002</v>
+      </c>
+      <c r="H68">
+        <v>781.79700000000003</v>
+      </c>
+      <c r="I68">
+        <v>104.62</v>
+      </c>
+      <c r="J68">
+        <v>2180.518</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>351.512</v>
+      </c>
+      <c r="O68">
+        <v>2584.8679999999999</v>
+      </c>
+      <c r="P68">
+        <v>2180.8229999999999</v>
+      </c>
+      <c r="Q68">
+        <v>2.9169999999999998</v>
+      </c>
+      <c r="R68">
+        <v>42904</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>-1803.0709999999999</v>
+      </c>
+      <c r="U68">
+        <v>52.243000000000002</v>
+      </c>
+      <c r="V68">
+        <v>36.142000000000003</v>
+      </c>
+      <c r="W68">
+        <v>-22.027000000000001</v>
+      </c>
+      <c r="X68">
+        <v>-19.638999999999999</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>65.741</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>42988</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>56.368000000000002</v>
+      </c>
+      <c r="D69">
+        <v>643.64200000000005</v>
+      </c>
+      <c r="E69">
+        <v>154.47499999999999</v>
+      </c>
+      <c r="F69">
+        <v>198.47800000000001</v>
+      </c>
+      <c r="G69">
+        <v>592.58600000000001</v>
+      </c>
+      <c r="H69">
+        <v>816.23500000000001</v>
+      </c>
+      <c r="I69">
+        <v>109.756</v>
+      </c>
+      <c r="J69">
+        <v>3128.0479999999998</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>398.53</v>
+      </c>
+      <c r="O69">
+        <v>3581.5790000000002</v>
+      </c>
+      <c r="P69">
+        <v>3160.3609999999999</v>
+      </c>
+      <c r="Q69">
+        <v>47.71</v>
+      </c>
+      <c r="R69">
+        <v>42988</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>-2765.3440000000001</v>
+      </c>
+      <c r="U69">
+        <v>61.36</v>
+      </c>
+      <c r="V69">
+        <v>115.32899999999999</v>
+      </c>
+      <c r="W69">
+        <v>-22.35</v>
+      </c>
+      <c r="X69">
+        <v>-54.073</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>56.368000000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>93.326999999999998</v>
+      </c>
+      <c r="D70">
+        <v>891.50900000000001</v>
+      </c>
+      <c r="E70">
+        <v>173.67699999999999</v>
+      </c>
+      <c r="F70">
+        <v>280.85199999999998</v>
+      </c>
+      <c r="G70">
+        <v>579.78</v>
+      </c>
+      <c r="H70">
+        <v>836.75300000000004</v>
+      </c>
+      <c r="I70">
+        <v>106.89400000000001</v>
+      </c>
+      <c r="J70">
+        <v>3121.49</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>398.28500000000003</v>
+      </c>
+      <c r="O70">
+        <v>3572.1370000000002</v>
+      </c>
+      <c r="P70">
+        <v>3153.8139999999999</v>
+      </c>
+      <c r="Q70">
+        <v>-29.567</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>14100</v>
+      </c>
+      <c r="T70">
+        <v>-2735.384</v>
+      </c>
+      <c r="U70">
+        <v>35.768000000000001</v>
+      </c>
+      <c r="V70">
+        <v>113.16200000000001</v>
+      </c>
+      <c r="W70">
+        <v>-39.667999999999999</v>
+      </c>
+      <c r="X70">
+        <v>-97.278000000000006</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>93.326999999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43184</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>88.826999999999998</v>
+      </c>
+      <c r="D71">
+        <v>785.37099999999998</v>
+      </c>
+      <c r="E71">
+        <v>174.416</v>
+      </c>
+      <c r="F71">
+        <v>217.654</v>
+      </c>
+      <c r="G71">
+        <v>536.423</v>
+      </c>
+      <c r="H71">
+        <v>798.3</v>
+      </c>
+      <c r="I71">
+        <v>88.978999999999999</v>
+      </c>
+      <c r="J71">
+        <v>3117.1930000000002</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-8.0779999999999994</v>
+      </c>
+      <c r="N71">
+        <v>384.76600000000002</v>
+      </c>
+      <c r="O71">
+        <v>3569.1640000000002</v>
+      </c>
+      <c r="P71">
+        <v>3149.5349999999999</v>
+      </c>
+      <c r="Q71">
+        <v>-34.237000000000002</v>
+      </c>
+      <c r="R71">
+        <v>43184</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>-2770.864</v>
+      </c>
+      <c r="U71">
+        <v>44.609000000000002</v>
+      </c>
+      <c r="V71">
+        <v>83.676000000000002</v>
+      </c>
+      <c r="W71">
+        <v>-7.9000000000000001E-2</v>
+      </c>
+      <c r="X71">
+        <v>-107.822</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>88.826999999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43268</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>77.408000000000001</v>
+      </c>
+      <c r="D72">
+        <v>779.39599999999996</v>
+      </c>
+      <c r="E72">
+        <v>182.816</v>
+      </c>
+      <c r="F72">
+        <v>212.65100000000001</v>
+      </c>
+      <c r="G72">
+        <v>682.91399999999999</v>
+      </c>
+      <c r="H72">
+        <v>954.56500000000005</v>
+      </c>
+      <c r="I72">
+        <v>79.417000000000002</v>
+      </c>
+      <c r="J72">
+        <v>3436.9659999999999</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>377.41500000000002</v>
+      </c>
+      <c r="O72">
+        <v>3883.77</v>
+      </c>
+      <c r="P72">
+        <v>3472.5639999999999</v>
+      </c>
+      <c r="Q72">
+        <v>114.976</v>
+      </c>
+      <c r="R72">
+        <v>43268</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>-2929.2049999999999</v>
+      </c>
+      <c r="U72">
+        <v>157.78800000000001</v>
+      </c>
+      <c r="V72">
+        <v>71.036000000000001</v>
+      </c>
+      <c r="W72">
+        <v>-23.459</v>
+      </c>
+      <c r="X72">
+        <v>77.765000000000001</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>77.408000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43352</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>84.094999999999999</v>
+      </c>
+      <c r="D73">
+        <v>785.96500000000003</v>
+      </c>
+      <c r="E73">
+        <v>170.244</v>
+      </c>
+      <c r="F73">
+        <v>212.80099999999999</v>
+      </c>
+      <c r="G73">
+        <v>605.649</v>
+      </c>
+      <c r="H73">
+        <v>912.11400000000003</v>
+      </c>
+      <c r="I73">
+        <v>87.509</v>
+      </c>
+      <c r="J73">
+        <v>3437.6320000000001</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>376.43099999999998</v>
+      </c>
+      <c r="O73">
+        <v>3885.8719999999998</v>
+      </c>
+      <c r="P73">
+        <v>3473.4789999999998</v>
+      </c>
+      <c r="Q73">
+        <v>-55.884</v>
+      </c>
+      <c r="R73">
+        <v>43352</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>-2973.7579999999998</v>
+      </c>
+      <c r="U73">
+        <v>84.6</v>
+      </c>
+      <c r="V73">
+        <v>107.807</v>
+      </c>
+      <c r="W73">
+        <v>-23.181999999999999</v>
+      </c>
+      <c r="X73">
+        <v>-142.00899999999999</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>84.094999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43464</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>111.642</v>
+      </c>
+      <c r="D74">
+        <v>1082.135</v>
+      </c>
+      <c r="E74">
+        <v>190.09100000000001</v>
+      </c>
+      <c r="F74">
+        <v>301.04700000000003</v>
+      </c>
+      <c r="G74">
+        <v>566.95100000000002</v>
+      </c>
+      <c r="H74">
+        <v>907.38499999999999</v>
+      </c>
+      <c r="I74">
+        <v>92.546000000000006</v>
+      </c>
+      <c r="J74">
+        <v>3479.328</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>379.74299999999999</v>
+      </c>
+      <c r="O74">
+        <v>3947.306</v>
+      </c>
+      <c r="P74">
+        <v>3531.5839999999998</v>
+      </c>
+      <c r="Q74">
+        <v>-42.281999999999996</v>
+      </c>
+      <c r="R74">
+        <v>43464</v>
+      </c>
+      <c r="S74">
+        <v>14500</v>
+      </c>
+      <c r="T74">
+        <v>-3039.9209999999998</v>
+      </c>
+      <c r="U74">
+        <v>25.437999999999999</v>
+      </c>
+      <c r="V74">
+        <v>131.65199999999999</v>
+      </c>
+      <c r="W74">
+        <v>-45.445999999999998</v>
+      </c>
+      <c r="X74">
+        <v>-150.73699999999999</v>
+      </c>
+      <c r="Y74">
+        <v>16.363</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>111.642</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43548</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>92.65</v>
+      </c>
+      <c r="D75">
+        <v>835.96299999999997</v>
+      </c>
+      <c r="E75">
+        <v>194.06399999999999</v>
+      </c>
+      <c r="F75">
+        <v>233.16800000000001</v>
+      </c>
+      <c r="G75">
+        <v>590.54300000000001</v>
+      </c>
+      <c r="H75">
+        <v>1148.2750000000001</v>
+      </c>
+      <c r="I75">
+        <v>84.888000000000005</v>
+      </c>
+      <c r="J75">
+        <v>3431.6170000000002</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-48.968000000000004</v>
+      </c>
+      <c r="N75">
+        <v>412.01299999999998</v>
+      </c>
+      <c r="O75">
+        <v>4123.4399999999996</v>
+      </c>
+      <c r="P75">
+        <v>3713.989</v>
+      </c>
+      <c r="Q75">
+        <v>30.03</v>
+      </c>
+      <c r="R75">
+        <v>43548</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>-2975.165</v>
+      </c>
+      <c r="U75">
+        <v>83.114000000000004</v>
+      </c>
+      <c r="V75">
+        <v>96.998000000000005</v>
+      </c>
+      <c r="W75">
+        <v>-0.09</v>
+      </c>
+      <c r="X75">
+        <v>-55.131999999999998</v>
+      </c>
+      <c r="Y75">
+        <v>214.71</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>92.65</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43632</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>92.358999999999995</v>
+      </c>
+      <c r="D76">
+        <v>811.64700000000005</v>
+      </c>
+      <c r="E76">
+        <v>182.904</v>
+      </c>
+      <c r="F76">
+        <v>228.17099999999999</v>
+      </c>
+      <c r="G76">
+        <v>643.447</v>
+      </c>
+      <c r="H76">
+        <v>1177.1669999999999</v>
+      </c>
+      <c r="I76">
+        <v>82.456000000000003</v>
+      </c>
+      <c r="J76">
+        <v>3398.9009999999998</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>412.90600000000001</v>
+      </c>
+      <c r="O76">
+        <v>4081.453</v>
+      </c>
+      <c r="P76">
+        <v>3669.3679999999999</v>
+      </c>
+      <c r="Q76">
+        <v>54.811</v>
+      </c>
+      <c r="R76">
+        <v>43632</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>-2904.2860000000001</v>
+      </c>
+      <c r="U76">
+        <v>108.259</v>
+      </c>
+      <c r="V76">
+        <v>104.55500000000001</v>
+      </c>
+      <c r="W76">
+        <v>-26.59</v>
+      </c>
+      <c r="X76">
+        <v>-59.164000000000001</v>
+      </c>
+      <c r="Y76">
+        <v>204.392</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>92.358999999999995</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43716</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>86.373000000000005</v>
+      </c>
+      <c r="D77">
+        <v>820.81200000000001</v>
+      </c>
+      <c r="E77">
+        <v>185.40299999999999</v>
+      </c>
+      <c r="F77">
+        <v>226.75700000000001</v>
+      </c>
+      <c r="G77">
+        <v>605.33900000000006</v>
+      </c>
+      <c r="H77">
+        <v>1160.2719999999999</v>
+      </c>
+      <c r="I77">
+        <v>95.656999999999996</v>
+      </c>
+      <c r="J77">
+        <v>3391.1790000000001</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>421.245</v>
+      </c>
+      <c r="O77">
+        <v>4095.9209999999998</v>
+      </c>
+      <c r="P77">
+        <v>3677.3670000000002</v>
+      </c>
+      <c r="Q77">
+        <v>-9.548</v>
+      </c>
+      <c r="R77">
+        <v>43716</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>-2935.6489999999999</v>
+      </c>
+      <c r="U77">
+        <v>66.706000000000003</v>
+      </c>
+      <c r="V77">
+        <v>123.04300000000001</v>
+      </c>
+      <c r="W77">
+        <v>-26.917999999999999</v>
+      </c>
+      <c r="X77">
+        <v>-132.00899999999999</v>
+      </c>
+      <c r="Y77">
+        <v>218.05</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>86.373000000000005</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43828</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>129.327</v>
+      </c>
+      <c r="D78">
+        <v>1150.3520000000001</v>
+      </c>
+      <c r="E78">
+        <v>210.26</v>
+      </c>
+      <c r="F78">
+        <v>323.60399999999998</v>
+      </c>
+      <c r="G78">
+        <v>787.61699999999996</v>
+      </c>
+      <c r="H78">
+        <v>1382.0920000000001</v>
+      </c>
+      <c r="I78">
+        <v>111.101</v>
+      </c>
+      <c r="J78">
+        <v>4052.7919999999999</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>453.83100000000002</v>
+      </c>
+      <c r="O78">
+        <v>4797.8509999999997</v>
+      </c>
+      <c r="P78">
+        <v>4350.4979999999996</v>
+      </c>
+      <c r="Q78">
+        <v>171.21199999999999</v>
+      </c>
+      <c r="R78">
+        <v>43828</v>
+      </c>
+      <c r="S78">
+        <v>13100</v>
+      </c>
+      <c r="T78">
+        <v>-3415.759</v>
+      </c>
+      <c r="U78">
+        <v>190.61500000000001</v>
+      </c>
+      <c r="V78">
+        <v>172.35400000000001</v>
+      </c>
+      <c r="W78">
+        <v>-52.116999999999997</v>
+      </c>
+      <c r="X78">
+        <v>23.513000000000002</v>
+      </c>
+      <c r="Y78">
+        <v>220.994</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>129.327</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43912</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>121.602</v>
+      </c>
+      <c r="D79">
+        <v>873.10199999999998</v>
+      </c>
+      <c r="E79">
+        <v>219.19900000000001</v>
+      </c>
+      <c r="F79">
+        <v>244.32300000000001</v>
+      </c>
+      <c r="G79">
+        <v>794.37400000000002</v>
+      </c>
+      <c r="H79">
+        <v>1389.876</v>
+      </c>
+      <c r="I79">
+        <v>94.501999999999995</v>
+      </c>
+      <c r="J79">
+        <v>4043.5819999999999</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-10.849</v>
+      </c>
+      <c r="N79">
+        <v>452.16899999999998</v>
+      </c>
+      <c r="O79">
+        <v>4782.0659999999998</v>
+      </c>
+      <c r="P79">
+        <v>4340.8059999999996</v>
+      </c>
+      <c r="Q79">
+        <v>-5.5540000000000003</v>
+      </c>
+      <c r="R79">
+        <v>43912</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>-3392.19</v>
+      </c>
+      <c r="U79">
+        <v>200.80099999999999</v>
+      </c>
+      <c r="V79">
+        <v>95.358000000000004</v>
+      </c>
+      <c r="W79">
+        <v>-0.08</v>
+      </c>
+      <c r="X79">
+        <v>-82.058000000000007</v>
+      </c>
+      <c r="Y79">
+        <v>216.92</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>121.602</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>43996</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>118.66800000000001</v>
+      </c>
+      <c r="D80">
+        <v>920.02300000000002</v>
+      </c>
+      <c r="E80">
+        <v>232.114</v>
+      </c>
+      <c r="F80">
+        <v>251.65100000000001</v>
+      </c>
+      <c r="G80">
+        <v>927.10900000000004</v>
+      </c>
+      <c r="H80">
+        <v>1581.6880000000001</v>
+      </c>
+      <c r="I80">
+        <v>102.896</v>
+      </c>
+      <c r="J80">
+        <v>4092.3670000000002</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>459.86799999999999</v>
+      </c>
+      <c r="O80">
+        <v>4864.5940000000001</v>
+      </c>
+      <c r="P80">
+        <v>4407.326</v>
+      </c>
+      <c r="Q80">
+        <v>91.995999999999995</v>
+      </c>
+      <c r="R80">
+        <v>43996</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>-3282.9059999999999</v>
+      </c>
+      <c r="U80">
+        <v>247.952</v>
+      </c>
+      <c r="V80">
+        <v>116.47</v>
+      </c>
+      <c r="W80">
+        <v>-30.186</v>
+      </c>
+      <c r="X80">
+        <v>31.135999999999999</v>
+      </c>
+      <c r="Y80">
+        <v>235.077</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>118.66800000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44080</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>99.129000000000005</v>
+      </c>
+      <c r="D81">
+        <v>967.71900000000005</v>
+      </c>
+      <c r="E81">
+        <v>229.40299999999999</v>
+      </c>
+      <c r="F81">
+        <v>253.833</v>
+      </c>
+      <c r="G81">
+        <v>956.52099999999996</v>
+      </c>
+      <c r="H81">
+        <v>1620.9480000000001</v>
+      </c>
+      <c r="I81">
+        <v>88.188000000000002</v>
+      </c>
+      <c r="J81">
+        <v>4025.1889999999999</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>488.52499999999998</v>
+      </c>
+      <c r="O81">
+        <v>4832.4790000000003</v>
+      </c>
+      <c r="P81">
+        <v>4344.326</v>
+      </c>
+      <c r="Q81">
+        <v>39.546999999999997</v>
+      </c>
+      <c r="R81">
+        <v>44080</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>-3211.5309999999999</v>
+      </c>
+      <c r="U81">
+        <v>330.71899999999999</v>
+      </c>
+      <c r="V81">
+        <v>158.571</v>
+      </c>
+      <c r="W81">
+        <v>-30.827000000000002</v>
+      </c>
+      <c r="X81">
+        <v>-102.66200000000001</v>
+      </c>
+      <c r="Y81">
+        <v>238.96700000000001</v>
+      </c>
+      <c r="Z81">
+        <v>-40</v>
+      </c>
+      <c r="AA81">
+        <v>99.129000000000005</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44199</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>151.89699999999999</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>1356.567</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>244.56</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>382.44799999999998</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>869.38400000000001</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>1567.1679999999999</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>94.498999999999995</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>4058.3180000000002</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>470.81900000000002</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>4867.5730000000003</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>4357.0020000000004</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-107.767</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44199</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>6900</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>-3300.4050000000002</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>168.821</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>222.39500000000001</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-60.832000000000001</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-292.822</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>259.96800000000002</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>151.89699999999999</v>
       </c>
     </row>
